--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAF0CCC-142F-4D82-AFAE-74AC27AD7FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EECD0B-E32F-458A-8F23-020420384DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collective" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -6365,7 +6365,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -14365,10 +14364,26 @@
   <dimension ref="A1:N193"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="M146" sqref="M146:M148"/>
+      <selection activeCell="A150" sqref="A150:XFD150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -22871,8 +22886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E94B33-7EB5-4A8A-9295-A31C01C472B7}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23023,7 +23038,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S35"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23552,8 +23567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EECD0B-E32F-458A-8F23-020420384DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4A7064-32B8-4493-9ABE-35A03F9AC710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collective" sheetId="1" r:id="rId1"/>
@@ -1423,16 +1423,16 @@
                   <c:v>2680877.3155555506</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5270465.8</c:v>
+                  <c:v>2348865.4851851836</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2441041.6666666665</c:v>
+                  <c:v>1083187.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2235616.6666666665</c:v>
+                  <c:v>994232.31481483928</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>593807.46666666667</c:v>
+                  <c:v>271445.67037037225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1520,16 +1520,16 @@
                   <c:v>3531463.7055555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5329624.416666667</c:v>
+                  <c:v>2334127.1666667499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3139375</c:v>
+                  <c:v>1355208.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1590775</c:v>
+                  <c:v>704090.27777775005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>599474.41666666663</c:v>
+                  <c:v>274828.55555558333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2949,16 +2949,16 @@
                   <c:v>2025340.5777778055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5080492.027777778</c:v>
+                  <c:v>2282270.6712963609</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1825000</c:v>
+                  <c:v>819166.66666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2655647.222222222</c:v>
+                  <c:v>1188553.2407407777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>599844.8055555555</c:v>
+                  <c:v>274550.76388888888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3046,16 +3046,16 @@
                   <c:v>2106229.9314814722</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5755943.527777778</c:v>
+                  <c:v>2582857.2962963334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2589166.6666666665</c:v>
+                  <c:v>1158055.5555555555</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2592488.888888889</c:v>
+                  <c:v>1161578.7037036945</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>574287.97222222225</c:v>
+                  <c:v>263223.03703699994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3143,16 +3143,16 @@
                   <c:v>3606217.8222222235</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5036862.916666667</c:v>
+                  <c:v>2225265.416666639</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2937291.6666666665</c:v>
+                  <c:v>1287291.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600472.2222222222</c:v>
+                  <c:v>709875.92592591664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>499099.02777777775</c:v>
+                  <c:v>228097.82407408339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3240,16 +3240,16 @@
                   <c:v>3616632.9685184718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5244856.194444444</c:v>
+                  <c:v>2313245.8194444166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3051875</c:v>
+                  <c:v>1334062.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1606100</c:v>
+                  <c:v>710929.16666672216</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>586881.1944444445</c:v>
+                  <c:v>268254.15277780552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3337,16 +3337,16 @@
                   <c:v>2049965.2777777778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5234174.333333333</c:v>
+                  <c:v>2340688.2222221666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1801875</c:v>
+                  <c:v>817361.11111111112</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2723375</c:v>
+                  <c:v>1200224.5370370832</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>708924.33333333337</c:v>
+                  <c:v>323102.57407408336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3434,16 +3434,16 @@
                   <c:v>3531463.7055555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5329624.416666667</c:v>
+                  <c:v>2334127.1666667499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3139375</c:v>
+                  <c:v>1355208.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1590775</c:v>
+                  <c:v>704090.27777775005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>599474.41666666663</c:v>
+                  <c:v>274828.55555558333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4463,16 +4463,16 @@
                   <c:v>3072453.4511110839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5339584.7166666668</c:v>
+                  <c:v>2362116.5027777837</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2772000</c:v>
+                  <c:v>1216812.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1973221.6666666667</c:v>
+                  <c:v>872642.2222222666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>594363.05000000005</c:v>
+                  <c:v>272661.78055555001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4560,16 +4560,16 @@
                   <c:v>2543549.11444445</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5267145.9666666668</c:v>
+                  <c:v>2352719.4277777667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2258250</c:v>
+                  <c:v>1006000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2411755</c:v>
+                  <c:v>1074816.9444444501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>597140.96666666667</c:v>
+                  <c:v>271902.48333331669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4657,16 +4657,16 @@
                   <c:v>2426629.3811111161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5204666.7166666668</c:v>
+                  <c:v>2331760.5249999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2292875</c:v>
+                  <c:v>1026750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2321873.3333333335</c:v>
+                  <c:v>1035237.7777778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>589918.3833333333</c:v>
+                  <c:v>269772.74722225004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4754,16 +4754,16 @@
                   <c:v>3531463.7055555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5329624.416666667</c:v>
+                  <c:v>2334127.1666667499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3139375</c:v>
+                  <c:v>1355208.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1590775</c:v>
+                  <c:v>704090.27777775005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>599474.41666666663</c:v>
+                  <c:v>274828.55555558333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5640,16 +5640,16 @@
                   <c:v>2809397.488888911</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5217533.1777777774</c:v>
+                  <c:v>2344412.9851851999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2348833.3333333335</c:v>
+                  <c:v>1052638.888888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2264373.3333333335</c:v>
+                  <c:v>1014772.5925926222</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>604326.51111111115</c:v>
+                  <c:v>277001.50370366662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5740,16 +5740,16 @@
                   <c:v>2659204.6874073786</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4865873.5777777778</c:v>
+                  <c:v>2185431.6999999778</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2218500</c:v>
+                  <c:v>1002166.6666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2079493.3333333333</c:v>
+                  <c:v>924560.74074073334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>567880.24444444443</c:v>
+                  <c:v>258704.29259262217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5840,16 +5840,16 @@
                   <c:v>3107294.6977777774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6891416.5999999996</c:v>
+                  <c:v>3040767.3481481331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3266166.6666666665</c:v>
+                  <c:v>1409500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2952475.5555555555</c:v>
+                  <c:v>1321325.9259259778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>672774.37777777773</c:v>
+                  <c:v>309941.42222224444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5940,16 +5940,16 @@
                   <c:v>2147612.3881481327</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4107039.8444444444</c:v>
+                  <c:v>1824849.9074074221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1930666.6666666667</c:v>
+                  <c:v>868444.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1646124.4444444445</c:v>
+                  <c:v>716270.00000002224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>530248.73333333328</c:v>
+                  <c:v>240135.46296295556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6040,16 +6040,16 @@
                   <c:v>3995136.244444333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5290619.333333333</c:v>
+                  <c:v>2375086.1666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3087500</c:v>
+                  <c:v>1371666.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1594200</c:v>
+                  <c:v>724516.66666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>608919.33333333337</c:v>
+                  <c:v>278902.83333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6140,16 +6140,16 @@
                   <c:v>3616515.9777776669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4433740</c:v>
+                  <c:v>1943135.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2457500</c:v>
+                  <c:v>1063750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1398433.3333333333</c:v>
+                  <c:v>613816.66666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>577806.66666666663</c:v>
+                  <c:v>265568.83333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6242,16 +6242,16 @@
                   <c:v>3632922.2888889997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7406588.666666667</c:v>
+                  <c:v>3137739.2777779996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4477500</c:v>
+                  <c:v>1841250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2266833.3333333335</c:v>
+                  <c:v>992400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>662255.33333333337</c:v>
+                  <c:v>304089.27777799993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6344,16 +6344,16 @@
                   <c:v>2881280.3111109999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4187549.6666666665</c:v>
+                  <c:v>1880547.7222223331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2535000</c:v>
+                  <c:v>1144166.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1103633.3333333333</c:v>
+                  <c:v>485627.77777766669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>548916.33333333337</c:v>
+                  <c:v>250753.27777766666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7531,16 +7531,16 @@
                   <c:v>2369551.6755555002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3102305.8166666669</c:v>
+                  <c:v>2068203.8777777501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1426125</c:v>
+                  <c:v>950750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1282050</c:v>
+                  <c:v>854700.00000001665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>394130.81666666665</c:v>
+                  <c:v>262753.87777776667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7628,16 +7628,16 @@
                   <c:v>2644800.666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4452172.3</c:v>
+                  <c:v>2226086.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1998875</c:v>
+                  <c:v>999437.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1918381.6666666667</c:v>
+                  <c:v>959190.83333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>534915.6333333333</c:v>
+                  <c:v>267457.81666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7725,16 +7725,16 @@
                   <c:v>3028279.6044444833</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8256919.2833333332</c:v>
+                  <c:v>2752306.4277777998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3898125</c:v>
+                  <c:v>1299375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3506418.3333333335</c:v>
+                  <c:v>1168806.1111111667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>852375.95</c:v>
+                  <c:v>284125.3166666833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7822,16 +7822,16 @@
                   <c:v>2821994.2666667504</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2862403.25</c:v>
+                  <c:v>1908268.8333334997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1550625</c:v>
+                  <c:v>1033750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>913425</c:v>
+                  <c:v>608950</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>398353.25</c:v>
+                  <c:v>265568.83333350002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7919,16 +7919,16 @@
                   <c:v>3620121.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4311736</c:v>
+                  <c:v>2155868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2456250</c:v>
+                  <c:v>1228125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1302125</c:v>
+                  <c:v>651062.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>553361</c:v>
+                  <c:v>276680.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8016,16 +8016,16 @@
                   <c:v>4152275.1999997497</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8814734</c:v>
+                  <c:v>2938244.6666667499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5411250</c:v>
+                  <c:v>1803750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2556775</c:v>
+                  <c:v>852258.33333325002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>846709</c:v>
+                  <c:v>282236.33333325002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14363,8 +14363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N193"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150:XFD150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14437,7 +14437,7 @@
         <v>7244934</v>
       </c>
       <c r="C2">
-        <v>0.06</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D2">
         <v>95.897942</v>
@@ -14449,16 +14449,16 @@
         <v>2286773.6</v>
       </c>
       <c r="G2">
-        <v>2863188</v>
+        <v>1908792</v>
       </c>
       <c r="H2">
-        <v>1155000</v>
+        <v>770000</v>
       </c>
       <c r="I2">
-        <v>1281500</v>
+        <v>854333.33333299996</v>
       </c>
       <c r="J2">
-        <v>426688</v>
+        <v>284458.66666699998</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -14481,7 +14481,7 @@
         <v>10627087.4</v>
       </c>
       <c r="C3">
-        <v>7.3999999999999996E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D3">
         <v>95.542715999999999</v>
@@ -14493,16 +14493,16 @@
         <v>2533796</v>
       </c>
       <c r="G3">
-        <v>4300095</v>
+        <v>2150047.5</v>
       </c>
       <c r="H3">
-        <v>1860000</v>
+        <v>930000</v>
       </c>
       <c r="I3">
-        <v>1873400</v>
+        <v>936700</v>
       </c>
       <c r="J3">
-        <v>566695</v>
+        <v>283347.5</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
@@ -14525,7 +14525,7 @@
         <v>23666158.800000001</v>
       </c>
       <c r="C4">
-        <v>0.33900000000000002</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="D4">
         <v>94.303991999999994</v>
@@ -14537,16 +14537,16 @@
         <v>2859630.8</v>
       </c>
       <c r="G4">
-        <v>12406442</v>
+        <v>4135480.6666669999</v>
       </c>
       <c r="H4">
-        <v>6862500</v>
+        <v>2287500</v>
       </c>
       <c r="I4">
-        <v>4703900</v>
+        <v>1567966.6666669999</v>
       </c>
       <c r="J4">
-        <v>840042</v>
+        <v>280014</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
@@ -14569,7 +14569,7 @@
         <v>7987689.5999999996</v>
       </c>
       <c r="C5">
-        <v>0.09</v>
+        <v>0.186</v>
       </c>
       <c r="D5">
         <v>95.073986000000005</v>
@@ -14581,16 +14581,16 @@
         <v>2884234.6666669999</v>
       </c>
       <c r="G5">
-        <v>2684252</v>
+        <v>1789501.3333330001</v>
       </c>
       <c r="H5">
-        <v>1155000</v>
+        <v>770000</v>
       </c>
       <c r="I5">
-        <v>1155900</v>
+        <v>770600</v>
       </c>
       <c r="J5">
-        <v>373352</v>
+        <v>248901.33333299999</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
@@ -14613,7 +14613,7 @@
         <v>11725970.6</v>
       </c>
       <c r="C6">
-        <v>8.6999999999999994E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D6">
         <v>94.840768999999995</v>
@@ -14625,16 +14625,16 @@
         <v>2996381</v>
       </c>
       <c r="G6">
-        <v>4244327</v>
+        <v>2122163.5</v>
       </c>
       <c r="H6">
-        <v>1860000</v>
+        <v>930000</v>
       </c>
       <c r="I6">
-        <v>1844300</v>
+        <v>922150</v>
       </c>
       <c r="J6">
-        <v>540027</v>
+        <v>270013.5</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -14657,7 +14657,7 @@
         <v>18171682.800000001</v>
       </c>
       <c r="C7">
-        <v>0.441</v>
+        <v>0.13</v>
       </c>
       <c r="D7">
         <v>94.346875999999995</v>
@@ -14669,16 +14669,16 @@
         <v>3205714</v>
       </c>
       <c r="G7">
-        <v>6686174</v>
+        <v>2228724.6666669999</v>
       </c>
       <c r="H7">
-        <v>2700000</v>
+        <v>900000</v>
       </c>
       <c r="I7">
-        <v>3172800</v>
+        <v>1057600</v>
       </c>
       <c r="J7">
-        <v>813374</v>
+        <v>271124.66666699998</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
@@ -14701,7 +14701,7 @@
         <v>8809767.8000000007</v>
       </c>
       <c r="C8">
-        <v>6.2E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D8">
         <v>94.451639999999998</v>
@@ -14713,16 +14713,16 @@
         <v>2870748.5333329998</v>
       </c>
       <c r="G8">
-        <v>3721423</v>
+        <v>2480948.6666669999</v>
       </c>
       <c r="H8">
-        <v>1492500</v>
+        <v>995000</v>
       </c>
       <c r="I8">
-        <v>1768900</v>
+        <v>1179266.6666669999</v>
       </c>
       <c r="J8">
-        <v>460023</v>
+        <v>306682</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
@@ -14745,7 +14745,7 @@
         <v>12686184.800000001</v>
       </c>
       <c r="C9">
-        <v>9.9000000000000005E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D9">
         <v>93.087297000000007</v>
@@ -14757,16 +14757,16 @@
         <v>3536410.8</v>
       </c>
       <c r="G9">
-        <v>4421930</v>
+        <v>2210965</v>
       </c>
       <c r="H9">
-        <v>1522500</v>
+        <v>761250</v>
       </c>
       <c r="I9">
-        <v>2299400</v>
+        <v>1149700</v>
       </c>
       <c r="J9">
-        <v>600030</v>
+        <v>300015</v>
       </c>
       <c r="K9" t="s">
         <v>15</v>
@@ -14789,7 +14789,7 @@
         <v>18201774.800000001</v>
       </c>
       <c r="C10">
-        <v>0.13700000000000001</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="D10">
         <v>94.251013</v>
@@ -14801,16 +14801,16 @@
         <v>2893041.4666670002</v>
       </c>
       <c r="G10">
-        <v>7842578</v>
+        <v>2614192.6666669999</v>
       </c>
       <c r="H10">
-        <v>2880000</v>
+        <v>960000</v>
       </c>
       <c r="I10">
-        <v>4069200</v>
+        <v>1356400</v>
       </c>
       <c r="J10">
-        <v>893378</v>
+        <v>297792.66666699998</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
@@ -14833,7 +14833,7 @@
         <v>5265317.5999999996</v>
       </c>
       <c r="C11">
-        <v>4.9000000000000002E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D11">
         <v>96.581095000000005</v>
@@ -14845,16 +14845,16 @@
         <v>1580654.9333329999</v>
       </c>
       <c r="G11">
-        <v>2357818</v>
+        <v>1571878.6666669999</v>
       </c>
       <c r="H11">
-        <v>1282500</v>
+        <v>855000</v>
       </c>
       <c r="I11">
-        <v>715300</v>
+        <v>476866.66666699998</v>
       </c>
       <c r="J11">
-        <v>360018</v>
+        <v>240012</v>
       </c>
       <c r="K11" t="s">
         <v>15</v>
@@ -14877,7 +14877,7 @@
         <v>7606321.4000000004</v>
       </c>
       <c r="C12">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D12">
         <v>95.810069999999996</v>
@@ -14889,16 +14889,16 @@
         <v>1580066.4</v>
       </c>
       <c r="G12">
-        <v>3639291</v>
+        <v>1819645.5</v>
       </c>
       <c r="H12">
-        <v>1935000</v>
+        <v>967500</v>
       </c>
       <c r="I12">
-        <v>1217600</v>
+        <v>608800</v>
       </c>
       <c r="J12">
-        <v>486691</v>
+        <v>243345.5</v>
       </c>
       <c r="K12" t="s">
         <v>15</v>
@@ -14921,7 +14921,7 @@
         <v>16231271.6</v>
       </c>
       <c r="C13">
-        <v>0.13300000000000001</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="D13">
         <v>95.085565000000003</v>
@@ -14933,16 +14933,16 @@
         <v>2732807.8666670001</v>
       </c>
       <c r="G13">
-        <v>6351906</v>
+        <v>2117302</v>
       </c>
       <c r="H13">
-        <v>2985000</v>
+        <v>995000</v>
       </c>
       <c r="I13">
-        <v>2580200</v>
+        <v>860066.66666700004</v>
       </c>
       <c r="J13">
-        <v>786706</v>
+        <v>262235.33333300002</v>
       </c>
       <c r="K13" t="s">
         <v>15</v>
@@ -14977,16 +14977,16 @@
         <v>1929873.6</v>
       </c>
       <c r="G14">
-        <v>3258986</v>
+        <v>2172657.3333330001</v>
       </c>
       <c r="H14">
-        <v>1155000</v>
+        <v>770000</v>
       </c>
       <c r="I14">
-        <v>1717300</v>
+        <v>1144866.6666669999</v>
       </c>
       <c r="J14">
-        <v>386686</v>
+        <v>257790.66666700001</v>
       </c>
       <c r="K14" t="s">
         <v>15</v>
@@ -15009,7 +15009,7 @@
         <v>10102137.800000001</v>
       </c>
       <c r="C15">
-        <v>8.3000000000000004E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D15">
         <v>95.925629000000001</v>
@@ -15021,16 +15021,16 @@
         <v>2088665.4</v>
       </c>
       <c r="G15">
-        <v>5510929</v>
+        <v>2755464.5</v>
       </c>
       <c r="H15">
-        <v>1575000</v>
+        <v>787500</v>
       </c>
       <c r="I15">
-        <v>3355900</v>
+        <v>1677950</v>
       </c>
       <c r="J15">
-        <v>580029</v>
+        <v>290014.5</v>
       </c>
       <c r="K15" t="s">
         <v>15</v>
@@ -15053,7 +15053,7 @@
         <v>13502976.800000001</v>
       </c>
       <c r="C16">
-        <v>0.129</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="D16">
         <v>96.279262000000003</v>
@@ -15065,16 +15065,16 @@
         <v>1769792.6666669999</v>
       </c>
       <c r="G16">
-        <v>7793312</v>
+        <v>2597770.6666669999</v>
       </c>
       <c r="H16">
-        <v>2310000</v>
+        <v>770000</v>
       </c>
       <c r="I16">
-        <v>4576600</v>
+        <v>1525533.3333330001</v>
       </c>
       <c r="J16">
-        <v>906712</v>
+        <v>302237.33333300002</v>
       </c>
       <c r="K16" t="s">
         <v>15</v>
@@ -15097,7 +15097,7 @@
         <v>6097921.7999999998</v>
       </c>
       <c r="C17">
-        <v>6.0999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D17">
         <v>96.347106999999994</v>
@@ -15109,16 +15109,16 @@
         <v>1785453.3333330001</v>
       </c>
       <c r="G17">
-        <v>2996185</v>
+        <v>1997456.6666669999</v>
       </c>
       <c r="H17">
-        <v>945000</v>
+        <v>630000</v>
       </c>
       <c r="I17">
-        <v>1684500</v>
+        <v>1123000</v>
       </c>
       <c r="J17">
-        <v>366685</v>
+        <v>244456.66666700001</v>
       </c>
       <c r="K17" t="s">
         <v>15</v>
@@ -15141,7 +15141,7 @@
         <v>8446672.5999999996</v>
       </c>
       <c r="C18">
-        <v>6.8000000000000005E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D18">
         <v>96.346646000000007</v>
@@ -15153,16 +15153,16 @@
         <v>1766958.8</v>
       </c>
       <c r="G18">
-        <v>4438093</v>
+        <v>2219046.5</v>
       </c>
       <c r="H18">
-        <v>1312500</v>
+        <v>656250</v>
       </c>
       <c r="I18">
-        <v>2598900</v>
+        <v>1299450</v>
       </c>
       <c r="J18">
-        <v>526693</v>
+        <v>263346.5</v>
       </c>
       <c r="K18" t="s">
         <v>15</v>
@@ -15185,7 +15185,7 @@
         <v>13099147.199999999</v>
       </c>
       <c r="C19">
-        <v>0.125</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="D19">
         <v>96.327201000000002</v>
@@ -15197,16 +15197,16 @@
         <v>1693600.266667</v>
       </c>
       <c r="G19">
-        <v>7565010</v>
+        <v>2521670</v>
       </c>
       <c r="H19">
-        <v>2205000</v>
+        <v>735000</v>
       </c>
       <c r="I19">
-        <v>4493300</v>
+        <v>1497766.6666669999</v>
       </c>
       <c r="J19">
-        <v>866710</v>
+        <v>288903.33333300002</v>
       </c>
       <c r="K19" t="s">
         <v>15</v>
@@ -15229,7 +15229,7 @@
         <v>7000508.2000000002</v>
       </c>
       <c r="C20">
-        <v>4.2000000000000003E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D20">
         <v>96.410976000000005</v>
@@ -15241,16 +15241,16 @@
         <v>1857967.466667</v>
       </c>
       <c r="G20">
-        <v>3994825</v>
+        <v>2663216.6666669999</v>
       </c>
       <c r="H20">
-        <v>1207500</v>
+        <v>805000</v>
       </c>
       <c r="I20">
-        <v>2287300</v>
+        <v>1524866.6666669999</v>
       </c>
       <c r="J20">
-        <v>500025</v>
+        <v>333350</v>
       </c>
       <c r="K20" t="s">
         <v>15</v>
@@ -15273,7 +15273,7 @@
         <v>9650317</v>
       </c>
       <c r="C21">
-        <v>6.3E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D21">
         <v>96.140466000000004</v>
@@ -15285,16 +15285,16 @@
         <v>1963139.8</v>
       </c>
       <c r="G21">
-        <v>5368465</v>
+        <v>2684232.5</v>
       </c>
       <c r="H21">
-        <v>1575000</v>
+        <v>787500</v>
       </c>
       <c r="I21">
-        <v>3160100</v>
+        <v>1580050</v>
       </c>
       <c r="J21">
-        <v>633365</v>
+        <v>316682.5</v>
       </c>
       <c r="K21" t="s">
         <v>15</v>
@@ -15317,7 +15317,7 @@
         <v>15956698.6</v>
       </c>
       <c r="C22">
-        <v>0.124</v>
+        <v>0.11</v>
       </c>
       <c r="D22">
         <v>95.965277999999998</v>
@@ -15329,16 +15329,16 @@
         <v>2020617.0666670001</v>
       </c>
       <c r="G22">
-        <v>9260585</v>
+        <v>3086861.6666669999</v>
       </c>
       <c r="H22">
-        <v>2520000</v>
+        <v>840000</v>
       </c>
       <c r="I22">
-        <v>5707200</v>
+        <v>1902400</v>
       </c>
       <c r="J22">
-        <v>1033385</v>
+        <v>344461.66666699998</v>
       </c>
       <c r="K22" t="s">
         <v>15</v>
@@ -15361,7 +15361,7 @@
         <v>4836433.2</v>
       </c>
       <c r="C23">
-        <v>4.2000000000000003E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D23">
         <v>96.475468000000006</v>
@@ -15373,16 +15373,16 @@
         <v>1391086.6666669999</v>
       </c>
       <c r="G23">
-        <v>2515450</v>
+        <v>1676966.6666669999</v>
       </c>
       <c r="H23">
-        <v>840000</v>
+        <v>560000</v>
       </c>
       <c r="I23">
-        <v>1342100</v>
+        <v>894733.33333299996</v>
       </c>
       <c r="J23">
-        <v>333350</v>
+        <v>222233.33333299999</v>
       </c>
       <c r="K23" t="s">
         <v>15</v>
@@ -15405,7 +15405,7 @@
         <v>6624162.5999999996</v>
       </c>
       <c r="C24">
-        <v>8.1000000000000003E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D24">
         <v>96.572869999999995</v>
@@ -15417,16 +15417,16 @@
         <v>1458270.2</v>
       </c>
       <c r="G24">
-        <v>3389291</v>
+        <v>1694645.5</v>
       </c>
       <c r="H24">
-        <v>1102500</v>
+        <v>551250</v>
       </c>
       <c r="I24">
-        <v>1800100</v>
+        <v>900050</v>
       </c>
       <c r="J24">
-        <v>486691</v>
+        <v>243345.5</v>
       </c>
       <c r="K24" t="s">
         <v>15</v>
@@ -15449,7 +15449,7 @@
         <v>11092379.4</v>
       </c>
       <c r="C25">
-        <v>0.11600000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="D25">
         <v>96.554806999999997</v>
@@ -15461,16 +15461,16 @@
         <v>1478559.733333</v>
       </c>
       <c r="G25">
-        <v>6153139</v>
+        <v>2051046.3333330001</v>
       </c>
       <c r="H25">
-        <v>2100000</v>
+        <v>700000</v>
       </c>
       <c r="I25">
-        <v>3273100</v>
+        <v>1091033.3333330001</v>
       </c>
       <c r="J25">
-        <v>780039</v>
+        <v>260013</v>
       </c>
       <c r="K25" t="s">
         <v>15</v>
@@ -15493,7 +15493,7 @@
         <v>5904477.4000000004</v>
       </c>
       <c r="C26">
-        <v>4.2000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D26">
         <v>96.739506000000006</v>
@@ -15505,16 +15505,16 @@
         <v>1686814.6666669999</v>
       </c>
       <c r="G26">
-        <v>3098853</v>
+        <v>2065902</v>
       </c>
       <c r="H26">
-        <v>1155000</v>
+        <v>770000</v>
       </c>
       <c r="I26">
-        <v>1550500</v>
+        <v>1033666.666667</v>
       </c>
       <c r="J26">
-        <v>393353</v>
+        <v>262235.33333300002</v>
       </c>
       <c r="K26" t="s">
         <v>15</v>
@@ -15537,7 +15537,7 @@
         <v>8920995</v>
       </c>
       <c r="C27">
-        <v>6.8000000000000005E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D27">
         <v>96.350443999999996</v>
@@ -15549,16 +15549,16 @@
         <v>1776937.6</v>
       </c>
       <c r="G27">
-        <v>4995297</v>
+        <v>2497648.5</v>
       </c>
       <c r="H27">
-        <v>1522500</v>
+        <v>761250</v>
       </c>
       <c r="I27">
-        <v>2866100</v>
+        <v>1433050</v>
       </c>
       <c r="J27">
-        <v>606697</v>
+        <v>303348.5</v>
       </c>
       <c r="K27" t="s">
         <v>15</v>
@@ -15581,7 +15581,7 @@
         <v>11736020</v>
       </c>
       <c r="C28">
-        <v>0.128</v>
+        <v>0.121</v>
       </c>
       <c r="D28">
         <v>96.738483000000002</v>
@@ -15593,16 +15593,16 @@
         <v>1618528.533333</v>
       </c>
       <c r="G28">
-        <v>6452740</v>
+        <v>2150913.3333330001</v>
       </c>
       <c r="H28">
-        <v>2257500</v>
+        <v>752500</v>
       </c>
       <c r="I28">
-        <v>3395200</v>
+        <v>1131733.3333330001</v>
       </c>
       <c r="J28">
-        <v>800040</v>
+        <v>266680</v>
       </c>
       <c r="K28" t="s">
         <v>15</v>
@@ -15625,7 +15625,7 @@
         <v>5350002.8</v>
       </c>
       <c r="C29">
-        <v>4.1000000000000002E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D29">
         <v>97.033158999999998</v>
@@ -15637,16 +15637,16 @@
         <v>1564068.8</v>
       </c>
       <c r="G29">
-        <v>2711050</v>
+        <v>1807366.6666669999</v>
       </c>
       <c r="H29">
-        <v>997500</v>
+        <v>665000</v>
       </c>
       <c r="I29">
-        <v>1380200</v>
+        <v>920133.33333299996</v>
       </c>
       <c r="J29">
-        <v>333350</v>
+        <v>222233.33333299999</v>
       </c>
       <c r="K29" t="s">
         <v>15</v>
@@ -15669,7 +15669,7 @@
         <v>7887301.2000000002</v>
       </c>
       <c r="C30">
-        <v>6.3E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D30">
         <v>96.862195</v>
@@ -15681,16 +15681,16 @@
         <v>1587804</v>
       </c>
       <c r="G30">
-        <v>4348326</v>
+        <v>2174163</v>
       </c>
       <c r="H30">
-        <v>1470000</v>
+        <v>735000</v>
       </c>
       <c r="I30">
-        <v>2358300</v>
+        <v>1179150</v>
       </c>
       <c r="J30">
-        <v>520026</v>
+        <v>260013</v>
       </c>
       <c r="K30" t="s">
         <v>15</v>
@@ -15713,7 +15713,7 @@
         <v>12901167.6</v>
       </c>
       <c r="C31">
-        <v>0.129</v>
+        <v>0.128</v>
       </c>
       <c r="D31">
         <v>96.349489000000005</v>
@@ -15725,16 +15725,16 @@
         <v>1674076</v>
       </c>
       <c r="G31">
-        <v>7215376</v>
+        <v>2405125.3333330001</v>
       </c>
       <c r="H31">
-        <v>2310000</v>
+        <v>770000</v>
       </c>
       <c r="I31">
-        <v>4052000</v>
+        <v>1350666.6666669999</v>
       </c>
       <c r="J31">
-        <v>853376</v>
+        <v>284458.66666699998</v>
       </c>
       <c r="K31" t="s">
         <v>15</v>
@@ -15757,7 +15757,7 @@
         <v>7770239.4000000004</v>
       </c>
       <c r="C32">
-        <v>4.3999999999999997E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D32">
         <v>96.147819999999996</v>
@@ -15769,16 +15769,16 @@
         <v>1979939.733333</v>
       </c>
       <c r="G32">
-        <v>4432225</v>
+        <v>2954816.6666669999</v>
       </c>
       <c r="H32">
-        <v>1260000</v>
+        <v>840000</v>
       </c>
       <c r="I32">
-        <v>2672200</v>
+        <v>1781466.6666669999</v>
       </c>
       <c r="J32">
-        <v>500025</v>
+        <v>333350</v>
       </c>
       <c r="K32" t="s">
         <v>15</v>
@@ -15801,7 +15801,7 @@
         <v>9380020.8000000007</v>
       </c>
       <c r="C33">
-        <v>6.3E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D33">
         <v>96.389583000000002</v>
@@ -15813,16 +15813,16 @@
         <v>1865923</v>
       </c>
       <c r="G33">
-        <v>5032830</v>
+        <v>2516415</v>
       </c>
       <c r="H33">
-        <v>1627500</v>
+        <v>813750</v>
       </c>
       <c r="I33">
-        <v>2805300</v>
+        <v>1402650</v>
       </c>
       <c r="J33">
-        <v>600030</v>
+        <v>300015</v>
       </c>
       <c r="K33" t="s">
         <v>15</v>
@@ -15845,7 +15845,7 @@
         <v>14031133.4</v>
       </c>
       <c r="C34">
-        <v>0.115</v>
+        <v>0.111</v>
       </c>
       <c r="D34">
         <v>96.435021000000006</v>
@@ -15857,16 +15857,16 @@
         <v>1769008</v>
       </c>
       <c r="G34">
-        <v>8284813</v>
+        <v>2761604.3333330001</v>
       </c>
       <c r="H34">
-        <v>2572500</v>
+        <v>857500</v>
       </c>
       <c r="I34">
-        <v>4785600</v>
+        <v>1595200</v>
       </c>
       <c r="J34">
-        <v>926713</v>
+        <v>308904.33333300002</v>
       </c>
       <c r="K34" t="s">
         <v>15</v>
@@ -15889,7 +15889,7 @@
         <v>4559978</v>
       </c>
       <c r="C35">
-        <v>0.04</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D35">
         <v>97.146493000000007</v>
@@ -15901,16 +15901,16 @@
         <v>1364537.3333330001</v>
       </c>
       <c r="G35">
-        <v>2300916</v>
+        <v>1533944</v>
       </c>
       <c r="H35">
-        <v>892500</v>
+        <v>595000</v>
       </c>
       <c r="I35">
-        <v>1088400</v>
+        <v>725600</v>
       </c>
       <c r="J35">
-        <v>320016</v>
+        <v>213344</v>
       </c>
       <c r="K35" t="s">
         <v>15</v>
@@ -15933,7 +15933,7 @@
         <v>7008284.5999999996</v>
       </c>
       <c r="C36">
-        <v>0.06</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D36">
         <v>96.403452999999999</v>
@@ -15945,16 +15945,16 @@
         <v>1397734.2</v>
       </c>
       <c r="G36">
-        <v>3615823</v>
+        <v>1807911.5</v>
       </c>
       <c r="H36">
-        <v>1102500</v>
+        <v>551250</v>
       </c>
       <c r="I36">
-        <v>2053300</v>
+        <v>1026650</v>
       </c>
       <c r="J36">
-        <v>460023</v>
+        <v>230011.5</v>
       </c>
       <c r="K36" t="s">
         <v>15</v>
@@ -15977,7 +15977,7 @@
         <v>11560014.800000001</v>
       </c>
       <c r="C37">
-        <v>0.11600000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D37">
         <v>96.723755999999995</v>
@@ -15989,16 +15989,16 @@
         <v>1462643.8666670001</v>
       </c>
       <c r="G37">
-        <v>6645770</v>
+        <v>2215256.6666669999</v>
       </c>
       <c r="H37">
-        <v>1995000</v>
+        <v>665000</v>
       </c>
       <c r="I37">
-        <v>3917400</v>
+        <v>1305800</v>
       </c>
       <c r="J37">
-        <v>733370</v>
+        <v>244456.66666700001</v>
       </c>
       <c r="K37" t="s">
         <v>15</v>
@@ -16021,7 +16021,7 @@
         <v>9236059.8000000007</v>
       </c>
       <c r="C38">
-        <v>4.2000000000000003E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D38">
         <v>93.985686999999999</v>
@@ -16033,16 +16033,16 @@
         <v>3524422.1333329999</v>
       </c>
       <c r="G38">
-        <v>2799953</v>
+        <v>1866635.3333330001</v>
       </c>
       <c r="H38">
-        <v>1492500</v>
+        <v>995000</v>
       </c>
       <c r="I38">
-        <v>914100</v>
+        <v>609400</v>
       </c>
       <c r="J38">
-        <v>393353</v>
+        <v>262235.33333300002</v>
       </c>
       <c r="K38" t="s">
         <v>59</v>
@@ -16065,7 +16065,7 @@
         <v>12978515.6</v>
       </c>
       <c r="C39">
-        <v>4.5999999999999999E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D39">
         <v>93.159374999999997</v>
@@ -16077,16 +16077,16 @@
         <v>3911598.4</v>
       </c>
       <c r="G39">
-        <v>3955160</v>
+        <v>1977580</v>
       </c>
       <c r="H39">
-        <v>2092500</v>
+        <v>1046250</v>
       </c>
       <c r="I39">
-        <v>1329300</v>
+        <v>664650</v>
       </c>
       <c r="J39">
-        <v>533360</v>
+        <v>266680</v>
       </c>
       <c r="K39" t="s">
         <v>59</v>
@@ -16109,7 +16109,7 @@
         <v>23314495.800000001</v>
       </c>
       <c r="C40">
-        <v>0.157</v>
+        <v>0.127</v>
       </c>
       <c r="D40">
         <v>91.566298000000003</v>
@@ -16121,16 +16121,16 @@
         <v>4900174.5333329998</v>
       </c>
       <c r="G40">
-        <v>6824573</v>
+        <v>2274857.6666669999</v>
       </c>
       <c r="H40">
-        <v>3862500</v>
+        <v>1287500</v>
       </c>
       <c r="I40">
-        <v>2168700</v>
+        <v>722900</v>
       </c>
       <c r="J40">
-        <v>793373</v>
+        <v>264457.66666699998</v>
       </c>
       <c r="K40" t="s">
         <v>59</v>
@@ -16153,7 +16153,7 @@
         <v>6859928</v>
       </c>
       <c r="C41">
-        <v>4.2000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D41">
         <v>95.557102999999998</v>
@@ -16165,16 +16165,16 @@
         <v>2410874.9333330002</v>
       </c>
       <c r="G41">
-        <v>2506252</v>
+        <v>1670834.6666669999</v>
       </c>
       <c r="H41">
-        <v>1387500</v>
+        <v>925000</v>
       </c>
       <c r="I41">
-        <v>745400</v>
+        <v>496933.33333300002</v>
       </c>
       <c r="J41">
-        <v>373352</v>
+        <v>248901.33333299999</v>
       </c>
       <c r="K41" t="s">
         <v>59</v>
@@ -16197,7 +16197,7 @@
         <v>10447641.4</v>
       </c>
       <c r="C42">
-        <v>7.0000000000000007E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D42">
         <v>94.839952999999994</v>
@@ -16209,16 +16209,16 @@
         <v>2875554</v>
       </c>
       <c r="G42">
-        <v>3889257</v>
+        <v>1944628.5</v>
       </c>
       <c r="H42">
-        <v>2197500</v>
+        <v>1098750</v>
       </c>
       <c r="I42">
-        <v>1218400</v>
+        <v>609200</v>
       </c>
       <c r="J42">
-        <v>473357</v>
+        <v>236678.5</v>
       </c>
       <c r="K42" t="s">
         <v>59</v>
@@ -16241,7 +16241,7 @@
         <v>20408408.800000001</v>
       </c>
       <c r="C43">
-        <v>0.33600000000000002</v>
+        <v>0.308</v>
       </c>
       <c r="D43">
         <v>93.015355999999997</v>
@@ -16253,16 +16253,16 @@
         <v>3741290.6666669999</v>
       </c>
       <c r="G43">
-        <v>7867840</v>
+        <v>2622613.3333330001</v>
       </c>
       <c r="H43">
-        <v>4770000</v>
+        <v>1590000</v>
       </c>
       <c r="I43">
-        <v>2297800</v>
+        <v>765933.33333299996</v>
       </c>
       <c r="J43">
-        <v>800040</v>
+        <v>266680</v>
       </c>
       <c r="K43" t="s">
         <v>59</v>
@@ -16285,7 +16285,7 @@
         <v>9397504</v>
       </c>
       <c r="C44">
-        <v>5.2999999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D44">
         <v>93.985590000000002</v>
@@ -16297,16 +16297,16 @@
         <v>3120021.8666670001</v>
       </c>
       <c r="G44">
-        <v>3922022</v>
+        <v>2614681.3333330001</v>
       </c>
       <c r="H44">
-        <v>2062500</v>
+        <v>1375000</v>
       </c>
       <c r="I44">
-        <v>1419500</v>
+        <v>946333.33333299996</v>
       </c>
       <c r="J44">
-        <v>440022</v>
+        <v>293348</v>
       </c>
       <c r="K44" t="s">
         <v>59</v>
@@ -16329,7 +16329,7 @@
         <v>18793655.399999999</v>
       </c>
       <c r="C45">
-        <v>6.7000000000000004E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D45">
         <v>88.263137</v>
@@ -16341,16 +16341,16 @@
         <v>5986502.7999999998</v>
       </c>
       <c r="G45">
-        <v>5224663</v>
+        <v>2612331.5</v>
       </c>
       <c r="H45">
-        <v>3052500</v>
+        <v>1526250</v>
       </c>
       <c r="I45">
-        <v>1578800</v>
+        <v>789400</v>
       </c>
       <c r="J45">
-        <v>593363</v>
+        <v>296681.5</v>
       </c>
       <c r="K45" t="s">
         <v>59</v>
@@ -16373,7 +16373,7 @@
         <v>28061894.600000001</v>
       </c>
       <c r="C46">
-        <v>0.28699999999999998</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D46">
         <v>91.762915000000007</v>
@@ -16385,16 +16385,16 @@
         <v>4129367.2</v>
       </c>
       <c r="G46">
-        <v>13653045</v>
+        <v>4551015</v>
       </c>
       <c r="H46">
-        <v>9120000</v>
+        <v>3040000</v>
       </c>
       <c r="I46">
-        <v>3633000</v>
+        <v>1211000</v>
       </c>
       <c r="J46">
-        <v>900045</v>
+        <v>300015</v>
       </c>
       <c r="K46" t="s">
         <v>59</v>
@@ -16417,7 +16417,7 @@
         <v>6981273.4000000004</v>
       </c>
       <c r="C47">
-        <v>5.6000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D47">
         <v>95.707130000000006</v>
@@ -16429,16 +16429,16 @@
         <v>2158759.2000000002</v>
       </c>
       <c r="G47">
-        <v>2977517</v>
+        <v>1985011.3333330001</v>
       </c>
       <c r="H47">
-        <v>1905000</v>
+        <v>1270000</v>
       </c>
       <c r="I47">
-        <v>732500</v>
+        <v>488333.33333300002</v>
       </c>
       <c r="J47">
-        <v>340017</v>
+        <v>226678</v>
       </c>
       <c r="K47" t="s">
         <v>59</v>
@@ -16461,7 +16461,7 @@
         <v>10097669.800000001</v>
       </c>
       <c r="C48">
-        <v>6.3E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D48">
         <v>93.605521999999993</v>
@@ -16473,16 +16473,16 @@
         <v>2894266.2</v>
       </c>
       <c r="G48">
-        <v>3435989</v>
+        <v>1717994.5</v>
       </c>
       <c r="H48">
-        <v>2145000</v>
+        <v>1072500</v>
       </c>
       <c r="I48">
-        <v>844300</v>
+        <v>422150</v>
       </c>
       <c r="J48">
-        <v>446689</v>
+        <v>223344.5</v>
       </c>
       <c r="K48" t="s">
         <v>59</v>
@@ -16505,7 +16505,7 @@
         <v>20077237.800000001</v>
       </c>
       <c r="C49">
-        <v>0.16</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="D49">
         <v>92.217509000000007</v>
@@ -16517,16 +16517,16 @@
         <v>4043464.4</v>
       </c>
       <c r="G49">
-        <v>6373905</v>
+        <v>2124635</v>
       </c>
       <c r="H49">
-        <v>3682500</v>
+        <v>1227500</v>
       </c>
       <c r="I49">
-        <v>1924700</v>
+        <v>641566.66666700004</v>
       </c>
       <c r="J49">
-        <v>766705</v>
+        <v>255568.33333299999</v>
       </c>
       <c r="K49" t="s">
         <v>59</v>
@@ -16561,16 +16561,16 @@
         <v>3724707.2</v>
       </c>
       <c r="G50">
-        <v>2648749</v>
+        <v>1765832.6666669999</v>
       </c>
       <c r="H50">
-        <v>1440000</v>
+        <v>960000</v>
       </c>
       <c r="I50">
-        <v>895400</v>
+        <v>596933.33333299996</v>
       </c>
       <c r="J50">
-        <v>313349</v>
+        <v>208899.33333299999</v>
       </c>
       <c r="K50" t="s">
         <v>59</v>
@@ -16593,7 +16593,7 @@
         <v>10305470.199999999</v>
       </c>
       <c r="C51">
-        <v>7.3999999999999996E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D51">
         <v>95.516521999999995</v>
@@ -16605,16 +16605,16 @@
         <v>2613291.7999999998</v>
       </c>
       <c r="G51">
-        <v>4063855</v>
+        <v>2031927.5</v>
       </c>
       <c r="H51">
-        <v>2272500</v>
+        <v>1136250</v>
       </c>
       <c r="I51">
-        <v>1358000</v>
+        <v>679000</v>
       </c>
       <c r="J51">
-        <v>433355</v>
+        <v>216677.5</v>
       </c>
       <c r="K51" t="s">
         <v>59</v>
@@ -16637,7 +16637,7 @@
         <v>17993718.199999999</v>
       </c>
       <c r="C52">
-        <v>0.16400000000000001</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="D52">
         <v>93.898655000000005</v>
@@ -16649,16 +16649,16 @@
         <v>3322848.6666669999</v>
       </c>
       <c r="G52">
-        <v>6834499</v>
+        <v>2278166.3333330001</v>
       </c>
       <c r="H52">
-        <v>3915000</v>
+        <v>1305000</v>
       </c>
       <c r="I52">
-        <v>2272800</v>
+        <v>757600</v>
       </c>
       <c r="J52">
-        <v>646699</v>
+        <v>215566.33333299999</v>
       </c>
       <c r="K52" t="s">
         <v>59</v>
@@ -16693,16 +16693,16 @@
         <v>2894311.2</v>
       </c>
       <c r="G53">
-        <v>2977514</v>
+        <v>1985009.3333330001</v>
       </c>
       <c r="H53">
-        <v>1800000</v>
+        <v>1200000</v>
       </c>
       <c r="I53">
-        <v>897500</v>
+        <v>598333.33333299996</v>
       </c>
       <c r="J53">
-        <v>280014</v>
+        <v>186676</v>
       </c>
       <c r="K53" t="s">
         <v>59</v>
@@ -16725,7 +16725,7 @@
         <v>12269394.4</v>
       </c>
       <c r="C54">
-        <v>7.8E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D54">
         <v>92.913252999999997</v>
@@ -16737,16 +16737,16 @@
         <v>3686102.2</v>
       </c>
       <c r="G54">
-        <v>3823454</v>
+        <v>1911727</v>
       </c>
       <c r="H54">
-        <v>2062500</v>
+        <v>1031250</v>
       </c>
       <c r="I54">
-        <v>1347600</v>
+        <v>673800</v>
       </c>
       <c r="J54">
-        <v>413354</v>
+        <v>206677</v>
       </c>
       <c r="K54" t="s">
         <v>59</v>
@@ -16769,7 +16769,7 @@
         <v>21695589.600000001</v>
       </c>
       <c r="C55">
-        <v>0.114</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="D55">
         <v>91.473977000000005</v>
@@ -16781,16 +16781,16 @@
         <v>4643622.8</v>
       </c>
       <c r="G55">
-        <v>6203866</v>
+        <v>2067955.3333330001</v>
       </c>
       <c r="H55">
-        <v>3450000</v>
+        <v>1150000</v>
       </c>
       <c r="I55">
-        <v>2100500</v>
+        <v>700166.66666700004</v>
       </c>
       <c r="J55">
-        <v>653366</v>
+        <v>217788.66666700001</v>
       </c>
       <c r="K55" t="s">
         <v>59</v>
@@ -16813,7 +16813,7 @@
         <v>9981030.4000000004</v>
       </c>
       <c r="C56">
-        <v>5.5E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D56">
         <v>93.313927000000007</v>
@@ -16825,16 +16825,16 @@
         <v>3504610.9333330002</v>
       </c>
       <c r="G56">
-        <v>3860886</v>
+        <v>2573924</v>
       </c>
       <c r="H56">
-        <v>2115000</v>
+        <v>1410000</v>
       </c>
       <c r="I56">
-        <v>1359200</v>
+        <v>906133.33333299996</v>
       </c>
       <c r="J56">
-        <v>386686</v>
+        <v>257790.66666700001</v>
       </c>
       <c r="K56" t="s">
         <v>59</v>
@@ -16857,7 +16857,7 @@
         <v>15254168.800000001</v>
       </c>
       <c r="C57">
-        <v>5.8999999999999997E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D57">
         <v>90.608159999999998</v>
@@ -16869,16 +16869,16 @@
         <v>4805394.4000000004</v>
       </c>
       <c r="G57">
-        <v>4446690</v>
+        <v>2223345</v>
       </c>
       <c r="H57">
-        <v>2430000</v>
+        <v>1215000</v>
       </c>
       <c r="I57">
-        <v>1550000</v>
+        <v>775000</v>
       </c>
       <c r="J57">
-        <v>466690</v>
+        <v>233345</v>
       </c>
       <c r="K57" t="s">
         <v>59</v>
@@ -16901,7 +16901,7 @@
         <v>31736787.600000001</v>
       </c>
       <c r="C58">
-        <v>1.4330000000000001</v>
+        <v>1.1459999999999999</v>
       </c>
       <c r="D58">
         <v>89.992071999999993</v>
@@ -16913,16 +16913,16 @@
         <v>5035164.9333330002</v>
       </c>
       <c r="G58">
-        <v>13972806</v>
+        <v>4657602</v>
       </c>
       <c r="H58">
-        <v>8107500</v>
+        <v>2702500</v>
       </c>
       <c r="I58">
-        <v>5078600</v>
+        <v>1692866.6666669999</v>
       </c>
       <c r="J58">
-        <v>786706</v>
+        <v>262235.33333300002</v>
       </c>
       <c r="K58" t="s">
         <v>59</v>
@@ -16945,7 +16945,7 @@
         <v>6534138</v>
       </c>
       <c r="C59">
-        <v>4.4999999999999998E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D59">
         <v>95.580663999999999</v>
@@ -16957,16 +16957,16 @@
         <v>2265597.6</v>
       </c>
       <c r="G59">
-        <v>2148778</v>
+        <v>1432518.6666669999</v>
       </c>
       <c r="H59">
-        <v>1357500</v>
+        <v>905000</v>
       </c>
       <c r="I59">
-        <v>564600</v>
+        <v>376400</v>
       </c>
       <c r="J59">
-        <v>226678</v>
+        <v>151118.66666700001</v>
       </c>
       <c r="K59" t="s">
         <v>59</v>
@@ -16989,7 +16989,7 @@
         <v>9969950.4000000004</v>
       </c>
       <c r="C60">
-        <v>7.0999999999999994E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D60">
         <v>92.890359000000004</v>
@@ -17001,16 +17001,16 @@
         <v>2681692.2000000002</v>
       </c>
       <c r="G60">
-        <v>3526084</v>
+        <v>1763042</v>
       </c>
       <c r="H60">
-        <v>2137500</v>
+        <v>1068750</v>
       </c>
       <c r="I60">
-        <v>1041900</v>
+        <v>520950</v>
       </c>
       <c r="J60">
-        <v>346684</v>
+        <v>173342</v>
       </c>
       <c r="K60" t="s">
         <v>59</v>
@@ -17033,7 +17033,7 @@
         <v>21162104</v>
       </c>
       <c r="C61">
-        <v>0.13800000000000001</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="D61">
         <v>91.189403999999996</v>
@@ -17045,16 +17045,16 @@
         <v>4669749.4666670002</v>
       </c>
       <c r="G61">
-        <v>5459930</v>
+        <v>1819976.6666669999</v>
       </c>
       <c r="H61">
-        <v>3030000</v>
+        <v>1010000</v>
       </c>
       <c r="I61">
-        <v>1829900</v>
+        <v>609966.66666700004</v>
       </c>
       <c r="J61">
-        <v>600030</v>
+        <v>200010</v>
       </c>
       <c r="K61" t="s">
         <v>59</v>
@@ -17077,7 +17077,7 @@
         <v>8854632.8000000007</v>
       </c>
       <c r="C62">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D62">
         <v>94.006629000000004</v>
@@ -17089,16 +17089,16 @@
         <v>3334695.733333</v>
       </c>
       <c r="G62">
-        <v>3023716</v>
+        <v>2015810.6666669999</v>
       </c>
       <c r="H62">
-        <v>1672500</v>
+        <v>1115000</v>
       </c>
       <c r="I62">
-        <v>1031200</v>
+        <v>687466.66666700004</v>
       </c>
       <c r="J62">
-        <v>320016</v>
+        <v>213344</v>
       </c>
       <c r="K62" t="s">
         <v>59</v>
@@ -17121,7 +17121,7 @@
         <v>12672068.4</v>
       </c>
       <c r="C63">
-        <v>8.7999999999999995E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D63">
         <v>93.402018999999996</v>
@@ -17133,16 +17133,16 @@
         <v>3671088.2</v>
       </c>
       <c r="G63">
-        <v>4143688</v>
+        <v>2071844</v>
       </c>
       <c r="H63">
-        <v>2272500</v>
+        <v>1136250</v>
       </c>
       <c r="I63">
-        <v>1444500</v>
+        <v>722250</v>
       </c>
       <c r="J63">
-        <v>426688</v>
+        <v>213344</v>
       </c>
       <c r="K63" t="s">
         <v>59</v>
@@ -17165,7 +17165,7 @@
         <v>23596765.399999999</v>
       </c>
       <c r="C64">
-        <v>0.115</v>
+        <v>0.121</v>
       </c>
       <c r="D64">
         <v>90.129362999999998</v>
@@ -17177,16 +17177,16 @@
         <v>5410949.8666669996</v>
       </c>
       <c r="G64">
-        <v>5787967</v>
+        <v>1929322.3333330001</v>
       </c>
       <c r="H64">
-        <v>3112500</v>
+        <v>1037500</v>
       </c>
       <c r="I64">
-        <v>2002100</v>
+        <v>667366.66666700004</v>
       </c>
       <c r="J64">
-        <v>673367</v>
+        <v>224455.66666700001</v>
       </c>
       <c r="K64" t="s">
         <v>59</v>
@@ -17209,7 +17209,7 @@
         <v>7772180.5999999996</v>
       </c>
       <c r="C65">
-        <v>4.2999999999999997E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D65">
         <v>94.750815000000003</v>
@@ -17221,16 +17221,16 @@
         <v>2837497.8666670001</v>
       </c>
       <c r="G65">
-        <v>2720981</v>
+        <v>1813987.3333330001</v>
       </c>
       <c r="H65">
-        <v>1620000</v>
+        <v>1080000</v>
       </c>
       <c r="I65">
-        <v>814300</v>
+        <v>542866.66666700004</v>
       </c>
       <c r="J65">
-        <v>286681</v>
+        <v>191120.66666700001</v>
       </c>
       <c r="K65" t="s">
         <v>59</v>
@@ -17253,7 +17253,7 @@
         <v>10777949.4</v>
       </c>
       <c r="C66">
-        <v>6.2E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D66">
         <v>94.788622000000004</v>
@@ -17265,16 +17265,16 @@
         <v>2990215</v>
       </c>
       <c r="G66">
-        <v>3615421</v>
+        <v>1807710.5</v>
       </c>
       <c r="H66">
-        <v>1935000</v>
+        <v>967500</v>
       </c>
       <c r="I66">
-        <v>1260400</v>
+        <v>630200</v>
       </c>
       <c r="J66">
-        <v>420021</v>
+        <v>210010.5</v>
       </c>
       <c r="K66" t="s">
         <v>59</v>
@@ -17297,7 +17297,7 @@
         <v>18192737.600000001</v>
       </c>
       <c r="C67">
-        <v>0.126</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="D67">
         <v>93.998492999999996</v>
@@ -17309,16 +17309,16 @@
         <v>3437865.733333</v>
       </c>
       <c r="G67">
-        <v>6596500</v>
+        <v>2198833.3333330001</v>
       </c>
       <c r="H67">
-        <v>3757500</v>
+        <v>1252500</v>
       </c>
       <c r="I67">
-        <v>2172300</v>
+        <v>724100</v>
       </c>
       <c r="J67">
-        <v>666700</v>
+        <v>222233.33333299999</v>
       </c>
       <c r="K67" t="s">
         <v>59</v>
@@ -17341,7 +17341,7 @@
         <v>10681090.6</v>
       </c>
       <c r="C68">
-        <v>5.0999999999999997E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D68">
         <v>92.292090999999999</v>
@@ -17353,16 +17353,16 @@
         <v>4049661.0666669998</v>
       </c>
       <c r="G68">
-        <v>3462185</v>
+        <v>2308123.3333330001</v>
       </c>
       <c r="H68">
-        <v>1725000</v>
+        <v>1150000</v>
       </c>
       <c r="I68">
-        <v>1370500</v>
+        <v>913666.66666700004</v>
       </c>
       <c r="J68">
-        <v>366685</v>
+        <v>244456.66666700001</v>
       </c>
       <c r="K68" t="s">
         <v>59</v>
@@ -17385,7 +17385,7 @@
         <v>15359265.4</v>
       </c>
       <c r="C69">
-        <v>6.0999999999999999E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D69">
         <v>91.095009000000005</v>
@@ -17397,16 +17397,16 @@
         <v>4534892.5999999996</v>
       </c>
       <c r="G69">
-        <v>5074757</v>
+        <v>2537378.5</v>
       </c>
       <c r="H69">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="I69">
-        <v>1601400</v>
+        <v>800700</v>
       </c>
       <c r="J69">
-        <v>473357</v>
+        <v>236678.5</v>
       </c>
       <c r="K69" t="s">
         <v>59</v>
@@ -17429,7 +17429,7 @@
         <v>25798801.600000001</v>
       </c>
       <c r="C70">
-        <v>0.14299999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D70">
         <v>92.667244999999994</v>
@@ -17441,16 +17441,16 @@
         <v>3689108.5333329998</v>
       </c>
       <c r="G70">
-        <v>13171770</v>
+        <v>4390590</v>
       </c>
       <c r="H70">
-        <v>8962500</v>
+        <v>2987500</v>
       </c>
       <c r="I70">
-        <v>3475900</v>
+        <v>1158633.3333330001</v>
       </c>
       <c r="J70">
-        <v>733370</v>
+        <v>244456.66666700001</v>
       </c>
       <c r="K70" t="s">
         <v>59</v>
@@ -17473,7 +17473,7 @@
         <v>5781229.2000000002</v>
       </c>
       <c r="C71">
-        <v>3.6999999999999998E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D71">
         <v>95.838381999999996</v>
@@ -17485,16 +17485,16 @@
         <v>2104285.8666670001</v>
       </c>
       <c r="G71">
-        <v>1920946</v>
+        <v>1280630.6666669999</v>
       </c>
       <c r="H71">
-        <v>1125000</v>
+        <v>750000</v>
       </c>
       <c r="I71">
-        <v>542600</v>
+        <v>361733.33333300002</v>
       </c>
       <c r="J71">
-        <v>253346</v>
+        <v>168897.33333299999</v>
       </c>
       <c r="K71" t="s">
         <v>59</v>
@@ -17517,7 +17517,7 @@
         <v>8259857.2000000002</v>
       </c>
       <c r="C72">
-        <v>5.7000000000000002E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D72">
         <v>95.182753000000005</v>
@@ -17529,16 +17529,16 @@
         <v>2248697</v>
       </c>
       <c r="G72">
-        <v>2865184</v>
+        <v>1432592</v>
       </c>
       <c r="H72">
-        <v>1567500</v>
+        <v>783750</v>
       </c>
       <c r="I72">
-        <v>951000</v>
+        <v>475500</v>
       </c>
       <c r="J72">
-        <v>346684</v>
+        <v>173342</v>
       </c>
       <c r="K72" t="s">
         <v>59</v>
@@ -17561,7 +17561,7 @@
         <v>18882177.800000001</v>
       </c>
       <c r="C73">
-        <v>0.13400000000000001</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D73">
         <v>92.640557000000001</v>
@@ -17573,16 +17573,16 @@
         <v>3971494.4</v>
       </c>
       <c r="G73">
-        <v>5546663</v>
+        <v>1848887.6666669999</v>
       </c>
       <c r="H73">
-        <v>3105000</v>
+        <v>1035000</v>
       </c>
       <c r="I73">
-        <v>1848300</v>
+        <v>616100</v>
       </c>
       <c r="J73">
-        <v>593363</v>
+        <v>197787.66666700001</v>
       </c>
       <c r="K73" t="s">
         <v>59</v>
@@ -17617,16 +17617,16 @@
         <v>3975462.1333329999</v>
       </c>
       <c r="G74">
-        <v>3127154</v>
+        <v>2084769.3333330001</v>
       </c>
       <c r="H74">
-        <v>1725000</v>
+        <v>1150000</v>
       </c>
       <c r="I74">
-        <v>988800</v>
+        <v>659200</v>
       </c>
       <c r="J74">
-        <v>413354</v>
+        <v>275569.33333300002</v>
       </c>
       <c r="K74" t="s">
         <v>96</v>
@@ -17649,7 +17649,7 @@
         <v>13809151</v>
       </c>
       <c r="C75">
-        <v>6.5000000000000002E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D75">
         <v>92.805133999999995</v>
@@ -17661,16 +17661,16 @@
         <v>4173139</v>
       </c>
       <c r="G75">
-        <v>4287895</v>
+        <v>2143947.5</v>
       </c>
       <c r="H75">
-        <v>2430000</v>
+        <v>1215000</v>
       </c>
       <c r="I75">
-        <v>1291200</v>
+        <v>645600</v>
       </c>
       <c r="J75">
-        <v>566695</v>
+        <v>283347.5</v>
       </c>
       <c r="K75" t="s">
         <v>96</v>
@@ -17693,7 +17693,7 @@
         <v>21920155</v>
       </c>
       <c r="C76">
-        <v>0.151</v>
+        <v>0.123</v>
       </c>
       <c r="D76">
         <v>92.130904999999998</v>
@@ -17705,16 +17705,16 @@
         <v>4354284.1333330004</v>
       </c>
       <c r="G76">
-        <v>7213577</v>
+        <v>2404525.6666669999</v>
       </c>
       <c r="H76">
-        <v>4072500</v>
+        <v>1357500</v>
       </c>
       <c r="I76">
-        <v>2267700</v>
+        <v>755900</v>
       </c>
       <c r="J76">
-        <v>873377</v>
+        <v>291125.66666699998</v>
       </c>
       <c r="K76" t="s">
         <v>96</v>
@@ -17737,7 +17737,7 @@
         <v>8429370.1999999993</v>
       </c>
       <c r="C77">
-        <v>4.3999999999999997E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D77">
         <v>94.598640000000003</v>
@@ -17749,16 +17749,16 @@
         <v>3058341.3333330001</v>
       </c>
       <c r="G77">
-        <v>2689119</v>
+        <v>1792746</v>
       </c>
       <c r="H77">
-        <v>1440000</v>
+        <v>960000</v>
       </c>
       <c r="I77">
-        <v>869100</v>
+        <v>579400</v>
       </c>
       <c r="J77">
-        <v>380019</v>
+        <v>253346</v>
       </c>
       <c r="K77" t="s">
         <v>96</v>
@@ -17781,7 +17781,7 @@
         <v>11475802.199999999</v>
       </c>
       <c r="C78">
-        <v>9.1999999999999998E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D78">
         <v>94.329250999999999</v>
@@ -17793,16 +17793,16 @@
         <v>3075606.4</v>
       </c>
       <c r="G78">
-        <v>4175691</v>
+        <v>2087845.5</v>
       </c>
       <c r="H78">
-        <v>2430000</v>
+        <v>1215000</v>
       </c>
       <c r="I78">
-        <v>1259000</v>
+        <v>629500</v>
       </c>
       <c r="J78">
-        <v>486691</v>
+        <v>243345.5</v>
       </c>
       <c r="K78" t="s">
         <v>96</v>
@@ -17825,7 +17825,7 @@
         <v>25996700</v>
       </c>
       <c r="C79">
-        <v>0.185</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D79">
         <v>90.003191000000001</v>
@@ -17837,16 +17837,16 @@
         <v>5576784.4000000004</v>
       </c>
       <c r="G79">
-        <v>7308842</v>
+        <v>2436280.6666669999</v>
       </c>
       <c r="H79">
-        <v>4200000</v>
+        <v>1400000</v>
       </c>
       <c r="I79">
-        <v>2268800</v>
+        <v>756266.66666700004</v>
       </c>
       <c r="J79">
-        <v>840042</v>
+        <v>280014</v>
       </c>
       <c r="K79" t="s">
         <v>96</v>
@@ -17869,7 +17869,7 @@
         <v>10431365.4</v>
       </c>
       <c r="C80">
-        <v>5.0999999999999997E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D80">
         <v>93.125174000000001</v>
@@ -17881,16 +17881,16 @@
         <v>3584792.266667</v>
       </c>
       <c r="G80">
-        <v>4176989</v>
+        <v>2784659.3333330001</v>
       </c>
       <c r="H80">
-        <v>2325000</v>
+        <v>1550000</v>
       </c>
       <c r="I80">
-        <v>1405300</v>
+        <v>936866.66666700004</v>
       </c>
       <c r="J80">
-        <v>446689</v>
+        <v>297792.66666699998</v>
       </c>
       <c r="K80" t="s">
         <v>96</v>
@@ -17913,7 +17913,7 @@
         <v>17865476.600000001</v>
       </c>
       <c r="C81">
-        <v>0.10100000000000001</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D81">
         <v>89.115161999999998</v>
@@ -17925,16 +17925,16 @@
         <v>5564130.7999999998</v>
       </c>
       <c r="G81">
-        <v>5112863</v>
+        <v>2556431.5</v>
       </c>
       <c r="H81">
-        <v>2925000</v>
+        <v>1462500</v>
       </c>
       <c r="I81">
-        <v>1594500</v>
+        <v>797250</v>
       </c>
       <c r="J81">
-        <v>593363</v>
+        <v>296681.5</v>
       </c>
       <c r="K81" t="s">
         <v>96</v>
@@ -17957,7 +17957,7 @@
         <v>27445392.800000001</v>
       </c>
       <c r="C82">
-        <v>0.14099999999999999</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="D82">
         <v>92.932456000000002</v>
@@ -17969,16 +17969,16 @@
         <v>3543586.1333329999</v>
       </c>
       <c r="G82">
-        <v>14802614</v>
+        <v>4934204.6666670004</v>
       </c>
       <c r="H82">
-        <v>9480000</v>
+        <v>3160000</v>
       </c>
       <c r="I82">
-        <v>4375900</v>
+        <v>1458633.3333330001</v>
       </c>
       <c r="J82">
-        <v>946714</v>
+        <v>315571.33333300002</v>
       </c>
       <c r="K82" t="s">
         <v>96</v>
@@ -18001,7 +18001,7 @@
         <v>6196198</v>
       </c>
       <c r="C83">
-        <v>4.7E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D83">
         <v>95.407674</v>
@@ -18013,16 +18013,16 @@
         <v>2272352.5333329998</v>
       </c>
       <c r="G83">
-        <v>2082284</v>
+        <v>1388189.3333330001</v>
       </c>
       <c r="H83">
-        <v>1230000</v>
+        <v>820000</v>
       </c>
       <c r="I83">
-        <v>505600</v>
+        <v>337066.66666699998</v>
       </c>
       <c r="J83">
-        <v>346684</v>
+        <v>231122.66666700001</v>
       </c>
       <c r="K83" t="s">
         <v>96</v>
@@ -18045,7 +18045,7 @@
         <v>9405403.5999999996</v>
       </c>
       <c r="C84">
-        <v>7.0999999999999994E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D84">
         <v>95.214230999999998</v>
@@ -18057,16 +18057,16 @@
         <v>2274041</v>
       </c>
       <c r="G84">
-        <v>3757592</v>
+        <v>1878796</v>
       </c>
       <c r="H84">
-        <v>2272500</v>
+        <v>1136250</v>
       </c>
       <c r="I84">
-        <v>978400</v>
+        <v>489200</v>
       </c>
       <c r="J84">
-        <v>506692</v>
+        <v>253346</v>
       </c>
       <c r="K84" t="s">
         <v>96</v>
@@ -18089,7 +18089,7 @@
         <v>19522696.399999999</v>
       </c>
       <c r="C85">
-        <v>0.17899999999999999</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="D85">
         <v>92.971222999999995</v>
@@ -18101,16 +18101,16 @@
         <v>3824931.3333330001</v>
       </c>
       <c r="G85">
-        <v>6527538</v>
+        <v>2175846</v>
       </c>
       <c r="H85">
-        <v>3915000</v>
+        <v>1305000</v>
       </c>
       <c r="I85">
-        <v>1852500</v>
+        <v>617500</v>
       </c>
       <c r="J85">
-        <v>760038</v>
+        <v>253346</v>
       </c>
       <c r="K85" t="s">
         <v>96</v>
@@ -18133,7 +18133,7 @@
         <v>8187902.2000000002</v>
       </c>
       <c r="C86">
-        <v>4.3999999999999997E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D86">
         <v>94.757542000000001</v>
@@ -18145,16 +18145,16 @@
         <v>3131365.6</v>
       </c>
       <c r="G86">
-        <v>2753719</v>
+        <v>1835812.6666669999</v>
       </c>
       <c r="H86">
-        <v>1440000</v>
+        <v>960000</v>
       </c>
       <c r="I86">
-        <v>933700</v>
+        <v>622466.66666700004</v>
       </c>
       <c r="J86">
-        <v>380019</v>
+        <v>253346</v>
       </c>
       <c r="K86" t="s">
         <v>96</v>
@@ -18177,7 +18177,7 @@
         <v>14397349</v>
       </c>
       <c r="C87">
-        <v>0.104</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D87">
         <v>92.482451999999995</v>
@@ -18189,16 +18189,16 @@
         <v>4192268.2</v>
       </c>
       <c r="G87">
-        <v>4837427</v>
+        <v>2418713.5</v>
       </c>
       <c r="H87">
-        <v>2790000</v>
+        <v>1395000</v>
       </c>
       <c r="I87">
-        <v>1507400</v>
+        <v>753700</v>
       </c>
       <c r="J87">
-        <v>540027</v>
+        <v>270013.5</v>
       </c>
       <c r="K87" t="s">
         <v>96</v>
@@ -18221,7 +18221,7 @@
         <v>22761600.199999999</v>
       </c>
       <c r="C88">
-        <v>0.161</v>
+        <v>0.13</v>
       </c>
       <c r="D88">
         <v>91.966941000000006</v>
@@ -18233,16 +18233,16 @@
         <v>4775930.4000000004</v>
       </c>
       <c r="G88">
-        <v>6640541</v>
+        <v>2213513.6666669999</v>
       </c>
       <c r="H88">
-        <v>3630000</v>
+        <v>1210000</v>
       </c>
       <c r="I88">
-        <v>2190500</v>
+        <v>730166.66666700004</v>
       </c>
       <c r="J88">
-        <v>820041</v>
+        <v>273347</v>
       </c>
       <c r="K88" t="s">
         <v>96</v>
@@ -18265,7 +18265,7 @@
         <v>9881697</v>
       </c>
       <c r="C89">
-        <v>4.4999999999999998E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D89">
         <v>92.883871999999997</v>
@@ -18277,16 +18277,16 @@
         <v>4144720</v>
       </c>
       <c r="G89">
-        <v>2423651</v>
+        <v>1615767.3333330001</v>
       </c>
       <c r="H89">
-        <v>1335000</v>
+        <v>890000</v>
       </c>
       <c r="I89">
-        <v>735300</v>
+        <v>490200</v>
       </c>
       <c r="J89">
-        <v>353351</v>
+        <v>235567.33333299999</v>
       </c>
       <c r="K89" t="s">
         <v>96</v>
@@ -18309,7 +18309,7 @@
         <v>11787565</v>
       </c>
       <c r="C90">
-        <v>8.5000000000000006E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D90">
         <v>93.999797999999998</v>
@@ -18321,16 +18321,16 @@
         <v>3291042.8</v>
       </c>
       <c r="G90">
-        <v>3906357</v>
+        <v>1953178.5</v>
       </c>
       <c r="H90">
-        <v>2167500</v>
+        <v>1083750</v>
       </c>
       <c r="I90">
-        <v>1265500</v>
+        <v>632750</v>
       </c>
       <c r="J90">
-        <v>473357</v>
+        <v>236678.5</v>
       </c>
       <c r="K90" t="s">
         <v>96</v>
@@ -18353,7 +18353,7 @@
         <v>22323862.399999999</v>
       </c>
       <c r="C91">
-        <v>0.13900000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="D91">
         <v>91.504298000000006</v>
@@ -18365,16 +18365,16 @@
         <v>4723816.1333330004</v>
       </c>
       <c r="G91">
-        <v>6639874</v>
+        <v>2213291.3333330001</v>
       </c>
       <c r="H91">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="I91">
-        <v>2226500</v>
+        <v>742166.66666700004</v>
       </c>
       <c r="J91">
-        <v>813374</v>
+        <v>271124.66666699998</v>
       </c>
       <c r="K91" t="s">
         <v>96</v>
@@ -18397,7 +18397,7 @@
         <v>10082116</v>
       </c>
       <c r="C92">
-        <v>5.1999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D92">
         <v>92.360725000000002</v>
@@ -18409,16 +18409,16 @@
         <v>3985316.266667</v>
       </c>
       <c r="G92">
-        <v>3277856</v>
+        <v>2185237.3333330001</v>
       </c>
       <c r="H92">
-        <v>1545000</v>
+        <v>1030000</v>
       </c>
       <c r="I92">
-        <v>1279500</v>
+        <v>853000</v>
       </c>
       <c r="J92">
-        <v>453356</v>
+        <v>302237.33333300002</v>
       </c>
       <c r="K92" t="s">
         <v>96</v>
@@ -18441,7 +18441,7 @@
         <v>13550869.6</v>
       </c>
       <c r="C93">
-        <v>7.4999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D93">
         <v>92.983260999999999</v>
@@ -18453,16 +18453,16 @@
         <v>3585412.2</v>
       </c>
       <c r="G93">
-        <v>5253762</v>
+        <v>2626881</v>
       </c>
       <c r="H93">
-        <v>2895000</v>
+        <v>1447500</v>
       </c>
       <c r="I93">
-        <v>1785400</v>
+        <v>892700</v>
       </c>
       <c r="J93">
-        <v>573362</v>
+        <v>286681</v>
       </c>
       <c r="K93" t="s">
         <v>96</v>
@@ -18485,7 +18485,7 @@
         <v>26801681</v>
       </c>
       <c r="C94">
-        <v>0.17199999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="D94">
         <v>92.470033000000001</v>
@@ -18497,16 +18497,16 @@
         <v>3780621.6</v>
       </c>
       <c r="G94">
-        <v>13889011</v>
+        <v>4629670.3333329996</v>
       </c>
       <c r="H94">
-        <v>9090000</v>
+        <v>3030000</v>
       </c>
       <c r="I94">
-        <v>3912300</v>
+        <v>1304100</v>
       </c>
       <c r="J94">
-        <v>886711</v>
+        <v>295570.33333300002</v>
       </c>
       <c r="K94" t="s">
         <v>96</v>
@@ -18529,7 +18529,7 @@
         <v>5847133.7999999998</v>
       </c>
       <c r="C95">
-        <v>3.9E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D95">
         <v>95.774146999999999</v>
@@ -18541,16 +18541,16 @@
         <v>2090398.1333329999</v>
       </c>
       <c r="G95">
-        <v>2126885</v>
+        <v>1417923.3333330001</v>
       </c>
       <c r="H95">
-        <v>1230000</v>
+        <v>820000</v>
       </c>
       <c r="I95">
-        <v>530200</v>
+        <v>353466.66666699998</v>
       </c>
       <c r="J95">
-        <v>366685</v>
+        <v>244456.66666700001</v>
       </c>
       <c r="K95" t="s">
         <v>96</v>
@@ -18573,7 +18573,7 @@
         <v>9510067.5999999996</v>
       </c>
       <c r="C96">
-        <v>7.9000000000000001E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D96">
         <v>94.351259999999996</v>
@@ -18585,16 +18585,16 @@
         <v>2762987.4</v>
       </c>
       <c r="G96">
-        <v>2947456</v>
+        <v>1473728</v>
       </c>
       <c r="H96">
-        <v>1567500</v>
+        <v>783750</v>
       </c>
       <c r="I96">
-        <v>926600</v>
+        <v>463300</v>
       </c>
       <c r="J96">
-        <v>453356</v>
+        <v>226678</v>
       </c>
       <c r="K96" t="s">
         <v>96</v>
@@ -18617,7 +18617,7 @@
         <v>18132504.199999999</v>
       </c>
       <c r="C97">
-        <v>0.28299999999999997</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="D97">
         <v>93.283640000000005</v>
@@ -18629,16 +18629,16 @@
         <v>3661568.1333329999</v>
       </c>
       <c r="G97">
-        <v>5915839</v>
+        <v>1971946.3333330001</v>
       </c>
       <c r="H97">
-        <v>3367500</v>
+        <v>1122500</v>
       </c>
       <c r="I97">
-        <v>1768300</v>
+        <v>589433.33333299996</v>
       </c>
       <c r="J97">
-        <v>780039</v>
+        <v>260013</v>
       </c>
       <c r="K97" t="s">
         <v>96</v>
@@ -18661,7 +18661,7 @@
         <v>8445898.5999999996</v>
       </c>
       <c r="C98">
-        <v>0.11799999999999999</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="D98">
         <v>94.836534999999998</v>
@@ -18673,16 +18673,16 @@
         <v>2748176.266667</v>
       </c>
       <c r="G98">
-        <v>3446753</v>
+        <v>2297835.3333330001</v>
       </c>
       <c r="H98">
-        <v>1957500</v>
+        <v>1305000</v>
       </c>
       <c r="I98">
-        <v>1095900</v>
+        <v>730600</v>
       </c>
       <c r="J98">
-        <v>393353</v>
+        <v>262235.33333300002</v>
       </c>
       <c r="K98" t="s">
         <v>96</v>
@@ -18705,7 +18705,7 @@
         <v>11166117.6</v>
       </c>
       <c r="C99">
-        <v>9.2999999999999999E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D99">
         <v>94.592153999999994</v>
@@ -18717,16 +18717,16 @@
         <v>3062876.4</v>
       </c>
       <c r="G99">
-        <v>4153526</v>
+        <v>2076763</v>
       </c>
       <c r="H99">
-        <v>2325000</v>
+        <v>1162500</v>
       </c>
       <c r="I99">
-        <v>1308500</v>
+        <v>654250</v>
       </c>
       <c r="J99">
-        <v>520026</v>
+        <v>260013</v>
       </c>
       <c r="K99" t="s">
         <v>96</v>
@@ -18749,7 +18749,7 @@
         <v>24476352.600000001</v>
       </c>
       <c r="C100">
-        <v>0.27700000000000002</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="D100">
         <v>91.020599000000004</v>
@@ -18761,16 +18761,16 @@
         <v>5082739.4666670002</v>
       </c>
       <c r="G100">
-        <v>7193441</v>
+        <v>2397813.6666669999</v>
       </c>
       <c r="H100">
-        <v>4147500</v>
+        <v>1382500</v>
       </c>
       <c r="I100">
-        <v>2225900</v>
+        <v>741966.66666700004</v>
       </c>
       <c r="J100">
-        <v>820041</v>
+        <v>273347</v>
       </c>
       <c r="K100" t="s">
         <v>96</v>
@@ -18793,7 +18793,7 @@
         <v>7850577.4000000004</v>
       </c>
       <c r="C101">
-        <v>0.08</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D101">
         <v>95.310068000000001</v>
@@ -18805,16 +18805,16 @@
         <v>2647478.4</v>
       </c>
       <c r="G101">
-        <v>3059085</v>
+        <v>2039390</v>
       </c>
       <c r="H101">
-        <v>1905000</v>
+        <v>1270000</v>
       </c>
       <c r="I101">
-        <v>787400</v>
+        <v>524933.33333299996</v>
       </c>
       <c r="J101">
-        <v>366685</v>
+        <v>244456.66666700001</v>
       </c>
       <c r="K101" t="s">
         <v>96</v>
@@ -18837,7 +18837,7 @@
         <v>10980491.800000001</v>
       </c>
       <c r="C102">
-        <v>0.11</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D102">
         <v>93.824915000000004</v>
@@ -18849,16 +18849,16 @@
         <v>3208541.8</v>
       </c>
       <c r="G102">
-        <v>3617057</v>
+        <v>1808528.5</v>
       </c>
       <c r="H102">
-        <v>1882500</v>
+        <v>941250</v>
       </c>
       <c r="I102">
-        <v>1261200</v>
+        <v>630600</v>
       </c>
       <c r="J102">
-        <v>473357</v>
+        <v>236678.5</v>
       </c>
       <c r="K102" t="s">
         <v>96</v>
@@ -18881,7 +18881,7 @@
         <v>21760216.600000001</v>
       </c>
       <c r="C103">
-        <v>0.152</v>
+        <v>0.122</v>
       </c>
       <c r="D103">
         <v>92.450344999999999</v>
@@ -18893,16 +18893,16 @@
         <v>4391311.5999999996</v>
       </c>
       <c r="G103">
-        <v>7002039</v>
+        <v>2334013</v>
       </c>
       <c r="H103">
-        <v>4020000</v>
+        <v>1340000</v>
       </c>
       <c r="I103">
-        <v>2202000</v>
+        <v>734000</v>
       </c>
       <c r="J103">
-        <v>780039</v>
+        <v>260013</v>
       </c>
       <c r="K103" t="s">
         <v>96</v>
@@ -18925,7 +18925,7 @@
         <v>10760023.4</v>
       </c>
       <c r="C104">
-        <v>6.8000000000000005E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D104">
         <v>93.289043000000007</v>
@@ -18937,16 +18937,16 @@
         <v>3501391.733333</v>
       </c>
       <c r="G104">
-        <v>4629889</v>
+        <v>3086592.6666669999</v>
       </c>
       <c r="H104">
-        <v>2632500</v>
+        <v>1755000</v>
       </c>
       <c r="I104">
-        <v>1550700</v>
+        <v>1033800</v>
       </c>
       <c r="J104">
-        <v>446689</v>
+        <v>297792.66666699998</v>
       </c>
       <c r="K104" t="s">
         <v>96</v>
@@ -18969,7 +18969,7 @@
         <v>14584944.800000001</v>
       </c>
       <c r="C105">
-        <v>6.8000000000000005E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D105">
         <v>92.062977000000004</v>
@@ -18981,16 +18981,16 @@
         <v>4094963.4</v>
       </c>
       <c r="G105">
-        <v>5172398</v>
+        <v>2586199</v>
       </c>
       <c r="H105">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="I105">
-        <v>1545700</v>
+        <v>772850</v>
       </c>
       <c r="J105">
-        <v>626698</v>
+        <v>313349</v>
       </c>
       <c r="K105" t="s">
         <v>96</v>
@@ -19013,7 +19013,7 @@
         <v>26592524.800000001</v>
       </c>
       <c r="C106">
-        <v>0.11899999999999999</v>
+        <v>0.111</v>
       </c>
       <c r="D106">
         <v>92.642466999999996</v>
@@ -19025,16 +19025,16 @@
         <v>3664410.266667</v>
       </c>
       <c r="G106">
-        <v>14060884</v>
+        <v>4686961.3333329996</v>
       </c>
       <c r="H106">
-        <v>9015000</v>
+        <v>3005000</v>
       </c>
       <c r="I106">
-        <v>4032500</v>
+        <v>1344166.6666669999</v>
       </c>
       <c r="J106">
-        <v>1013384</v>
+        <v>337794.66666699998</v>
       </c>
       <c r="K106" t="s">
         <v>96</v>
@@ -19057,7 +19057,7 @@
         <v>5675266.7999999998</v>
       </c>
       <c r="C107">
-        <v>4.4999999999999998E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D107">
         <v>96.250041999999993</v>
@@ -19069,16 +19069,16 @@
         <v>1908153.0666670001</v>
       </c>
       <c r="G107">
-        <v>2251284</v>
+        <v>1500856</v>
       </c>
       <c r="H107">
-        <v>1410000</v>
+        <v>940000</v>
       </c>
       <c r="I107">
-        <v>494600</v>
+        <v>329733.33333300002</v>
       </c>
       <c r="J107">
-        <v>346684</v>
+        <v>231122.66666700001</v>
       </c>
       <c r="K107" t="s">
         <v>96</v>
@@ -19101,7 +19101,7 @@
         <v>7962146.5999999996</v>
       </c>
       <c r="C108">
-        <v>0.11600000000000001</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D108">
         <v>94.904330000000002</v>
@@ -19113,16 +19113,16 @@
         <v>2188537.6</v>
       </c>
       <c r="G108">
-        <v>2720091</v>
+        <v>1360045.5</v>
       </c>
       <c r="H108">
-        <v>1387500</v>
+        <v>693750</v>
       </c>
       <c r="I108">
-        <v>845900</v>
+        <v>422950</v>
       </c>
       <c r="J108">
-        <v>486691</v>
+        <v>243345.5</v>
       </c>
       <c r="K108" t="s">
         <v>96</v>
@@ -19145,7 +19145,7 @@
         <v>20195310.399999999</v>
       </c>
       <c r="C109">
-        <v>0.13400000000000001</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="D109">
         <v>92.129930000000002</v>
@@ -19157,16 +19157,16 @@
         <v>4297308.5333329998</v>
       </c>
       <c r="G109">
-        <v>5633840</v>
+        <v>1877946.6666669999</v>
       </c>
       <c r="H109">
-        <v>3082500</v>
+        <v>1027500</v>
       </c>
       <c r="I109">
-        <v>1751300</v>
+        <v>583766.66666700004</v>
       </c>
       <c r="J109">
-        <v>800040</v>
+        <v>266680</v>
       </c>
       <c r="K109" t="s">
         <v>96</v>
@@ -19189,7 +19189,7 @@
         <v>8299823.4000000004</v>
       </c>
       <c r="C110">
-        <v>0.05</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D110">
         <v>95.873997000000003</v>
@@ -19201,16 +19201,16 @@
         <v>2327954.4</v>
       </c>
       <c r="G110">
-        <v>3866055</v>
+        <v>2577370</v>
       </c>
       <c r="H110">
-        <v>2010000</v>
+        <v>1340000</v>
       </c>
       <c r="I110">
-        <v>1422700</v>
+        <v>948466.66666700004</v>
       </c>
       <c r="J110">
-        <v>433355</v>
+        <v>288903.33333300002</v>
       </c>
       <c r="K110" t="s">
         <v>133</v>
@@ -19233,7 +19233,7 @@
         <v>10433137.6</v>
       </c>
       <c r="C111">
-        <v>9.1999999999999998E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D111">
         <v>95.427977999999996</v>
@@ -19245,16 +19245,16 @@
         <v>2508336.4</v>
       </c>
       <c r="G111">
-        <v>4568428</v>
+        <v>2284214</v>
       </c>
       <c r="H111">
-        <v>2250000</v>
+        <v>1125000</v>
       </c>
       <c r="I111">
-        <v>1758400</v>
+        <v>879200</v>
       </c>
       <c r="J111">
-        <v>560028</v>
+        <v>280014</v>
       </c>
       <c r="K111" t="s">
         <v>133</v>
@@ -19277,7 +19277,7 @@
         <v>18548179.600000001</v>
       </c>
       <c r="C112">
-        <v>0.24</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="D112">
         <v>94.802525000000003</v>
@@ -19289,16 +19289,16 @@
         <v>2737928</v>
       </c>
       <c r="G112">
-        <v>8668910</v>
+        <v>2889636.6666669999</v>
       </c>
       <c r="H112">
-        <v>4200000</v>
+        <v>1400000</v>
       </c>
       <c r="I112">
-        <v>3602200</v>
+        <v>1200733.3333330001</v>
       </c>
       <c r="J112">
-        <v>866710</v>
+        <v>288903.33333300002</v>
       </c>
       <c r="K112" t="s">
         <v>133</v>
@@ -19321,7 +19321,7 @@
         <v>7608049.2000000002</v>
       </c>
       <c r="C113">
-        <v>6.6000000000000003E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D113">
         <v>95.587114999999997</v>
@@ -19333,16 +19333,16 @@
         <v>2495710.4</v>
       </c>
       <c r="G113">
-        <v>3137386</v>
+        <v>2091590.6666669999</v>
       </c>
       <c r="H113">
-        <v>1620000</v>
+        <v>1080000</v>
       </c>
       <c r="I113">
-        <v>1130700</v>
+        <v>753800</v>
       </c>
       <c r="J113">
-        <v>386686</v>
+        <v>257790.66666700001</v>
       </c>
       <c r="K113" t="s">
         <v>133</v>
@@ -19365,7 +19365,7 @@
         <v>11532184.199999999</v>
       </c>
       <c r="C114">
-        <v>0.115</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D114">
         <v>95.164433000000002</v>
@@ -19377,16 +19377,16 @@
         <v>2601510.7999999998</v>
       </c>
       <c r="G114">
-        <v>5068459</v>
+        <v>2534229.5</v>
       </c>
       <c r="H114">
-        <v>2610000</v>
+        <v>1305000</v>
       </c>
       <c r="I114">
-        <v>1945100</v>
+        <v>972550</v>
       </c>
       <c r="J114">
-        <v>513359</v>
+        <v>256679.5</v>
       </c>
       <c r="K114" t="s">
         <v>133</v>
@@ -19409,7 +19409,7 @@
         <v>18272895.399999999</v>
       </c>
       <c r="C115">
-        <v>0.16</v>
+        <v>0.127</v>
       </c>
       <c r="D115">
         <v>94.770128999999997</v>
@@ -19421,16 +19421,16 @@
         <v>2986300.5333329998</v>
       </c>
       <c r="G115">
-        <v>7719139</v>
+        <v>2573046.3333330001</v>
       </c>
       <c r="H115">
-        <v>3840000</v>
+        <v>1280000</v>
       </c>
       <c r="I115">
-        <v>3099100</v>
+        <v>1033033.333333</v>
       </c>
       <c r="J115">
-        <v>780039</v>
+        <v>260013</v>
       </c>
       <c r="K115" t="s">
         <v>133</v>
@@ -19453,7 +19453,7 @@
         <v>9957800.5999999996</v>
       </c>
       <c r="C116">
-        <v>4.4999999999999998E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D116">
         <v>93.521913999999995</v>
@@ -19465,16 +19465,16 @@
         <v>3366571.733333</v>
       </c>
       <c r="G116">
-        <v>3912423</v>
+        <v>2608282</v>
       </c>
       <c r="H116">
-        <v>1650000</v>
+        <v>1100000</v>
       </c>
       <c r="I116">
-        <v>1802400</v>
+        <v>1201600</v>
       </c>
       <c r="J116">
-        <v>460023</v>
+        <v>306682</v>
       </c>
       <c r="K116" t="s">
         <v>133</v>
@@ -19497,7 +19497,7 @@
         <v>12634401.4</v>
       </c>
       <c r="C117">
-        <v>6.9000000000000006E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D117">
         <v>94.420906000000002</v>
@@ -19509,16 +19509,16 @@
         <v>2886538.6</v>
       </c>
       <c r="G117">
-        <v>5754397</v>
+        <v>2877198.5</v>
       </c>
       <c r="H117">
-        <v>2820000</v>
+        <v>1410000</v>
       </c>
       <c r="I117">
-        <v>2327700</v>
+        <v>1163850</v>
       </c>
       <c r="J117">
-        <v>606697</v>
+        <v>303348.5</v>
       </c>
       <c r="K117" t="s">
         <v>133</v>
@@ -19541,7 +19541,7 @@
         <v>25507032.800000001</v>
       </c>
       <c r="C118">
-        <v>0.94399999999999995</v>
+        <v>0.875</v>
       </c>
       <c r="D118">
         <v>93.746171000000004</v>
@@ -19553,16 +19553,16 @@
         <v>3204746.8</v>
       </c>
       <c r="G118">
-        <v>13682080</v>
+        <v>4560693.3333329996</v>
       </c>
       <c r="H118">
-        <v>7950000</v>
+        <v>2650000</v>
       </c>
       <c r="I118">
-        <v>4798700</v>
+        <v>1599566.6666669999</v>
       </c>
       <c r="J118">
-        <v>933380</v>
+        <v>311126.66666699998</v>
       </c>
       <c r="K118" t="s">
         <v>133</v>
@@ -19585,7 +19585,7 @@
         <v>5945458.5999999996</v>
       </c>
       <c r="C119">
-        <v>4.7E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D119">
         <v>96.131685000000004</v>
@@ -19597,16 +19597,16 @@
         <v>1749396.8</v>
       </c>
       <c r="G119">
-        <v>2580951</v>
+        <v>1720634</v>
       </c>
       <c r="H119">
-        <v>1282500</v>
+        <v>855000</v>
       </c>
       <c r="I119">
-        <v>945100</v>
+        <v>630066.66666700004</v>
       </c>
       <c r="J119">
-        <v>353351</v>
+        <v>235567.33333299999</v>
       </c>
       <c r="K119" t="s">
         <v>133</v>
@@ -19629,7 +19629,7 @@
         <v>8868635.4000000004</v>
       </c>
       <c r="C120">
-        <v>8.2000000000000003E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D120">
         <v>96.017471</v>
@@ -19641,16 +19641,16 @@
         <v>1892187.2</v>
       </c>
       <c r="G120">
-        <v>4160223</v>
+        <v>2080111.5</v>
       </c>
       <c r="H120">
-        <v>2220000</v>
+        <v>1110000</v>
       </c>
       <c r="I120">
-        <v>1480200</v>
+        <v>740100</v>
       </c>
       <c r="J120">
-        <v>460023</v>
+        <v>230011.5</v>
       </c>
       <c r="K120" t="s">
         <v>133</v>
@@ -19673,7 +19673,7 @@
         <v>16506597.199999999</v>
       </c>
       <c r="C121">
-        <v>0.14199999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="D121">
         <v>94.863973999999999</v>
@@ -19685,16 +19685,16 @@
         <v>2525849.4666670002</v>
       </c>
       <c r="G121">
-        <v>7497808</v>
+        <v>2499269.3333330001</v>
       </c>
       <c r="H121">
-        <v>3630000</v>
+        <v>1210000</v>
       </c>
       <c r="I121">
-        <v>3041100</v>
+        <v>1013700</v>
       </c>
       <c r="J121">
-        <v>826708</v>
+        <v>275569.33333300002</v>
       </c>
       <c r="K121" t="s">
         <v>133</v>
@@ -19717,7 +19717,7 @@
         <v>6615031</v>
       </c>
       <c r="C122">
-        <v>5.7000000000000002E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D122">
         <v>96.158030999999994</v>
@@ -19729,16 +19729,16 @@
         <v>1918791.2</v>
       </c>
       <c r="G122">
-        <v>3268719</v>
+        <v>2179146</v>
       </c>
       <c r="H122">
-        <v>1440000</v>
+        <v>960000</v>
       </c>
       <c r="I122">
-        <v>1448700</v>
+        <v>965800</v>
       </c>
       <c r="J122">
-        <v>380019</v>
+        <v>253346</v>
       </c>
       <c r="K122" t="s">
         <v>133</v>
@@ -19761,7 +19761,7 @@
         <v>9764156.4000000004</v>
       </c>
       <c r="C123">
-        <v>7.6999999999999999E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D123">
         <v>96.213245999999998</v>
@@ -19773,16 +19773,16 @@
         <v>2110974.6</v>
       </c>
       <c r="G123">
-        <v>4727192</v>
+        <v>2363596</v>
       </c>
       <c r="H123">
-        <v>1755000</v>
+        <v>877500</v>
       </c>
       <c r="I123">
-        <v>2465500</v>
+        <v>1232750</v>
       </c>
       <c r="J123">
-        <v>506692</v>
+        <v>253346</v>
       </c>
       <c r="K123" t="s">
         <v>133</v>
@@ -19805,7 +19805,7 @@
         <v>15864384</v>
       </c>
       <c r="C124">
-        <v>0.17599999999999999</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="D124">
         <v>95.876919000000001</v>
@@ -19817,16 +19817,16 @@
         <v>1925039.8666670001</v>
       </c>
       <c r="G124">
-        <v>9370044</v>
+        <v>3123348</v>
       </c>
       <c r="H124">
-        <v>3787500</v>
+        <v>1262500</v>
       </c>
       <c r="I124">
-        <v>4702500</v>
+        <v>1567500</v>
       </c>
       <c r="J124">
-        <v>880044</v>
+        <v>293348</v>
       </c>
       <c r="K124" t="s">
         <v>133</v>
@@ -19849,7 +19849,7 @@
         <v>7127992.4000000004</v>
       </c>
       <c r="C125">
-        <v>5.5E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D125">
         <v>95.476545999999999</v>
@@ -19861,16 +19861,16 @@
         <v>2079103.733333</v>
       </c>
       <c r="G125">
-        <v>3446018</v>
+        <v>2297345.3333330001</v>
       </c>
       <c r="H125">
-        <v>1282500</v>
+        <v>855000</v>
       </c>
       <c r="I125">
-        <v>1803500</v>
+        <v>1202333.3333330001</v>
       </c>
       <c r="J125">
-        <v>360018</v>
+        <v>240012</v>
       </c>
       <c r="K125" t="s">
         <v>133</v>
@@ -19893,7 +19893,7 @@
         <v>9106872.4000000004</v>
       </c>
       <c r="C126">
-        <v>0.126</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D126">
         <v>96.106425000000002</v>
@@ -19905,16 +19905,16 @@
         <v>1708459</v>
       </c>
       <c r="G126">
-        <v>5074158</v>
+        <v>2537079</v>
       </c>
       <c r="H126">
-        <v>2452500</v>
+        <v>1226250</v>
       </c>
       <c r="I126">
-        <v>2128300</v>
+        <v>1064150</v>
       </c>
       <c r="J126">
-        <v>493358</v>
+        <v>246679</v>
       </c>
       <c r="K126" t="s">
         <v>133</v>
@@ -19937,7 +19937,7 @@
         <v>12995886.4</v>
       </c>
       <c r="C127">
-        <v>0.22600000000000001</v>
+        <v>0.189</v>
       </c>
       <c r="D127">
         <v>96.688715000000002</v>
@@ -19949,16 +19949,16 @@
         <v>1654909.8666670001</v>
       </c>
       <c r="G127">
-        <v>7389704</v>
+        <v>2463234.6666669999</v>
       </c>
       <c r="H127">
-        <v>3367500</v>
+        <v>1122500</v>
       </c>
       <c r="I127">
-        <v>3275500</v>
+        <v>1091833.3333330001</v>
       </c>
       <c r="J127">
-        <v>746704</v>
+        <v>248901.33333299999</v>
       </c>
       <c r="K127" t="s">
         <v>133</v>
@@ -19981,7 +19981,7 @@
         <v>8466581.4000000004</v>
       </c>
       <c r="C128">
-        <v>6.3E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D128">
         <v>95.769985000000005</v>
@@ -19993,16 +19993,16 @@
         <v>2190753.6</v>
       </c>
       <c r="G128">
-        <v>4622423</v>
+        <v>3081615.3333330001</v>
       </c>
       <c r="H128">
-        <v>1777500</v>
+        <v>1185000</v>
       </c>
       <c r="I128">
-        <v>2384900</v>
+        <v>1589933.3333330001</v>
       </c>
       <c r="J128">
-        <v>460023</v>
+        <v>306682</v>
       </c>
       <c r="K128" t="s">
         <v>133</v>
@@ -20025,7 +20025,7 @@
         <v>11040405.6</v>
       </c>
       <c r="C129">
-        <v>0.16800000000000001</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D129">
         <v>95.961978999999999</v>
@@ -20037,16 +20037,16 @@
         <v>2070970.4</v>
       </c>
       <c r="G129">
-        <v>6222128</v>
+        <v>3111064</v>
       </c>
       <c r="H129">
-        <v>2482500</v>
+        <v>1241250</v>
       </c>
       <c r="I129">
-        <v>3179600</v>
+        <v>1589800</v>
       </c>
       <c r="J129">
-        <v>560028</v>
+        <v>280014</v>
       </c>
       <c r="K129" t="s">
         <v>133</v>
@@ -20069,7 +20069,7 @@
         <v>17131951.600000001</v>
       </c>
       <c r="C130">
-        <v>0.24299999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="D130">
         <v>95.874537000000004</v>
@@ -20081,16 +20081,16 @@
         <v>2075142.8</v>
       </c>
       <c r="G130">
-        <v>10090146</v>
+        <v>3363382</v>
       </c>
       <c r="H130">
-        <v>3967500</v>
+        <v>1322500</v>
       </c>
       <c r="I130">
-        <v>5202600</v>
+        <v>1734200</v>
       </c>
       <c r="J130">
-        <v>920046</v>
+        <v>306682</v>
       </c>
       <c r="K130" t="s">
         <v>133</v>
@@ -20113,7 +20113,7 @@
         <v>5315312.8</v>
       </c>
       <c r="C131">
-        <v>6.4000000000000001E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D131">
         <v>96.143513999999996</v>
@@ -20125,16 +20125,16 @@
         <v>1491504.533333</v>
       </c>
       <c r="G131">
-        <v>2743048</v>
+        <v>1828698.6666669999</v>
       </c>
       <c r="H131">
-        <v>1357500</v>
+        <v>905000</v>
       </c>
       <c r="I131">
-        <v>1092200</v>
+        <v>728133.33333299996</v>
       </c>
       <c r="J131">
-        <v>293348</v>
+        <v>195565.33333299999</v>
       </c>
       <c r="K131" t="s">
         <v>133</v>
@@ -20157,7 +20157,7 @@
         <v>6680251.7999999998</v>
       </c>
       <c r="C132">
-        <v>7.5999999999999998E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D132">
         <v>96.616732999999996</v>
@@ -20169,16 +20169,16 @@
         <v>1340948.8</v>
       </c>
       <c r="G132">
-        <v>3536987</v>
+        <v>1768493.5</v>
       </c>
       <c r="H132">
-        <v>1620000</v>
+        <v>810000</v>
       </c>
       <c r="I132">
-        <v>1510300</v>
+        <v>755150</v>
       </c>
       <c r="J132">
-        <v>406687</v>
+        <v>203343.5</v>
       </c>
       <c r="K132" t="s">
         <v>133</v>
@@ -20201,7 +20201,7 @@
         <v>12739836.4</v>
       </c>
       <c r="C133">
-        <v>0.152</v>
+        <v>0.158</v>
       </c>
       <c r="D133">
         <v>96.103903000000003</v>
@@ -20213,16 +20213,16 @@
         <v>1648522</v>
       </c>
       <c r="G133">
-        <v>7126704</v>
+        <v>2375568</v>
       </c>
       <c r="H133">
-        <v>3210000</v>
+        <v>1070000</v>
       </c>
       <c r="I133">
-        <v>3170000</v>
+        <v>1056666.6666669999</v>
       </c>
       <c r="J133">
-        <v>746704</v>
+        <v>248901.33333299999</v>
       </c>
       <c r="K133" t="s">
         <v>133</v>
@@ -20245,7 +20245,7 @@
         <v>6834702.5999999996</v>
       </c>
       <c r="C134">
-        <v>4.2999999999999997E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D134">
         <v>96.281757999999996</v>
@@ -20257,16 +20257,16 @@
         <v>1964456.266667</v>
       </c>
       <c r="G134">
-        <v>3095953</v>
+        <v>2063968.6666669999</v>
       </c>
       <c r="H134">
-        <v>1050000</v>
+        <v>700000</v>
       </c>
       <c r="I134">
-        <v>1652600</v>
+        <v>1101733.3333330001</v>
       </c>
       <c r="J134">
-        <v>393353</v>
+        <v>262235.33333300002</v>
       </c>
       <c r="K134" t="s">
         <v>133</v>
@@ -20289,7 +20289,7 @@
         <v>10261159.4</v>
       </c>
       <c r="C135">
-        <v>0.09</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D135">
         <v>96.198590999999993</v>
@@ -20301,16 +20301,16 @@
         <v>1845972.2</v>
       </c>
       <c r="G135">
-        <v>5929727</v>
+        <v>2964863.5</v>
       </c>
       <c r="H135">
-        <v>2557500</v>
+        <v>1278750</v>
       </c>
       <c r="I135">
-        <v>2832200</v>
+        <v>1416100</v>
       </c>
       <c r="J135">
-        <v>540027</v>
+        <v>270013.5</v>
       </c>
       <c r="K135" t="s">
         <v>133</v>
@@ -20333,7 +20333,7 @@
         <v>14090931.199999999</v>
       </c>
       <c r="C136">
-        <v>0.27100000000000002</v>
+        <v>0.218</v>
       </c>
       <c r="D136">
         <v>96.497917999999999</v>
@@ -20345,16 +20345,16 @@
         <v>1707591.6</v>
       </c>
       <c r="G136">
-        <v>8053238</v>
+        <v>2684412.6666669999</v>
       </c>
       <c r="H136">
-        <v>3525000</v>
+        <v>1175000</v>
       </c>
       <c r="I136">
-        <v>3768200</v>
+        <v>1256066.6666669999</v>
       </c>
       <c r="J136">
-        <v>760038</v>
+        <v>253346</v>
       </c>
       <c r="K136" t="s">
         <v>133</v>
@@ -20377,7 +20377,7 @@
         <v>6459606.7999999998</v>
       </c>
       <c r="C137">
-        <v>4.9000000000000002E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D137">
         <v>96.708475000000007</v>
@@ -20389,16 +20389,16 @@
         <v>1543261.6</v>
       </c>
       <c r="G137">
-        <v>3597618</v>
+        <v>2398412</v>
       </c>
       <c r="H137">
-        <v>1852500</v>
+        <v>1235000</v>
       </c>
       <c r="I137">
-        <v>1385100</v>
+        <v>923400</v>
       </c>
       <c r="J137">
-        <v>360018</v>
+        <v>240012</v>
       </c>
       <c r="K137" t="s">
         <v>133</v>
@@ -20421,7 +20421,7 @@
         <v>9869202.5999999996</v>
       </c>
       <c r="C138">
-        <v>7.9000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D138">
         <v>96.088115999999999</v>
@@ -20433,16 +20433,16 @@
         <v>2034421</v>
       </c>
       <c r="G138">
-        <v>4957989</v>
+        <v>2478994.5</v>
       </c>
       <c r="H138">
-        <v>2115000</v>
+        <v>1057500</v>
       </c>
       <c r="I138">
-        <v>2396300</v>
+        <v>1198150</v>
       </c>
       <c r="J138">
-        <v>446689</v>
+        <v>223344.5</v>
       </c>
       <c r="K138" t="s">
         <v>133</v>
@@ -20465,7 +20465,7 @@
         <v>16236153.6</v>
       </c>
       <c r="C139">
-        <v>0.224</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="D139">
         <v>95.750814000000005</v>
@@ -20477,16 +20477,16 @@
         <v>2034842.1333329999</v>
       </c>
       <c r="G139">
-        <v>9019940</v>
+        <v>3006646.6666669999</v>
       </c>
       <c r="H139">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="I139">
-        <v>4619900</v>
+        <v>1539966.6666669999</v>
       </c>
       <c r="J139">
-        <v>800040</v>
+        <v>266680</v>
       </c>
       <c r="K139" t="s">
         <v>133</v>
@@ -20509,7 +20509,7 @@
         <v>8923201.4000000004</v>
       </c>
       <c r="C140">
-        <v>4.5999999999999999E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D140">
         <v>95.543691999999993</v>
@@ -20521,16 +20521,16 @@
         <v>2276292</v>
       </c>
       <c r="G140">
-        <v>4934125</v>
+        <v>3289416.6666669999</v>
       </c>
       <c r="H140">
-        <v>1830000</v>
+        <v>1220000</v>
       </c>
       <c r="I140">
-        <v>2604100</v>
+        <v>1736066.6666669999</v>
       </c>
       <c r="J140">
-        <v>500025</v>
+        <v>333350</v>
       </c>
       <c r="K140" t="s">
         <v>133</v>
@@ -20553,7 +20553,7 @@
         <v>11097206.199999999</v>
       </c>
       <c r="C141">
-        <v>9.7000000000000003E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D141">
         <v>96.133737999999994</v>
@@ -20565,16 +20565,16 @@
         <v>1972723</v>
       </c>
       <c r="G141">
-        <v>6476663</v>
+        <v>3238331.5</v>
       </c>
       <c r="H141">
-        <v>2895000</v>
+        <v>1447500</v>
       </c>
       <c r="I141">
-        <v>2988300</v>
+        <v>1494150</v>
       </c>
       <c r="J141">
-        <v>593363</v>
+        <v>296681.5</v>
       </c>
       <c r="K141" t="s">
         <v>133</v>
@@ -20597,7 +20597,7 @@
         <v>16689005.800000001</v>
       </c>
       <c r="C142">
-        <v>0.16200000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="D142">
         <v>95.854504000000006</v>
@@ -20609,16 +20609,16 @@
         <v>2070625.2</v>
       </c>
       <c r="G142">
-        <v>9676143</v>
+        <v>3225381</v>
       </c>
       <c r="H142">
-        <v>3660000</v>
+        <v>1220000</v>
       </c>
       <c r="I142">
-        <v>5156100</v>
+        <v>1718700</v>
       </c>
       <c r="J142">
-        <v>860043</v>
+        <v>286681</v>
       </c>
       <c r="K142" t="s">
         <v>133</v>
@@ -20641,7 +20641,7 @@
         <v>5323065.5999999996</v>
       </c>
       <c r="C143">
-        <v>4.2999999999999997E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D143">
         <v>96.905860000000004</v>
@@ -20653,16 +20653,16 @@
         <v>1499280.8</v>
       </c>
       <c r="G143">
-        <v>2492982</v>
+        <v>1661988</v>
       </c>
       <c r="H143">
-        <v>1125000</v>
+        <v>750000</v>
       </c>
       <c r="I143">
-        <v>1061300</v>
+        <v>707533.33333299996</v>
       </c>
       <c r="J143">
-        <v>306682</v>
+        <v>204454.66666700001</v>
       </c>
       <c r="K143" t="s">
         <v>133</v>
@@ -20685,7 +20685,7 @@
         <v>7420607.4000000004</v>
       </c>
       <c r="C144">
-        <v>0.06</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D144">
         <v>95.771257000000006</v>
@@ -20697,16 +20697,16 @@
         <v>1604432.6</v>
       </c>
       <c r="G144">
-        <v>3597489</v>
+        <v>1798744.5</v>
       </c>
       <c r="H144">
-        <v>1387500</v>
+        <v>693750</v>
       </c>
       <c r="I144">
-        <v>1763300</v>
+        <v>881650</v>
       </c>
       <c r="J144">
-        <v>446689</v>
+        <v>223344.5</v>
       </c>
       <c r="K144" t="s">
         <v>133</v>
@@ -20729,7 +20729,7 @@
         <v>13620462.4</v>
       </c>
       <c r="C145">
-        <v>0.309</v>
+        <v>0.219</v>
       </c>
       <c r="D145">
         <v>95.914299999999997</v>
@@ -20741,16 +20741,16 @@
         <v>1772227.6</v>
       </c>
       <c r="G145">
-        <v>7148570</v>
+        <v>2382856.6666669999</v>
       </c>
       <c r="H145">
-        <v>3030000</v>
+        <v>1010000</v>
       </c>
       <c r="I145">
-        <v>3385200</v>
+        <v>1128400</v>
       </c>
       <c r="J145">
-        <v>733370</v>
+        <v>244456.66666700001</v>
       </c>
       <c r="K145" t="s">
         <v>133</v>
@@ -20773,7 +20773,7 @@
         <v>8262775.2000000002</v>
       </c>
       <c r="C146">
-        <v>5.6000000000000001E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D146">
         <v>95.070537999999999</v>
@@ -20785,16 +20785,16 @@
         <v>2811754.4</v>
       </c>
       <c r="G146">
-        <v>3163786</v>
+        <v>2109190.6666669999</v>
       </c>
       <c r="H146">
-        <v>1725000</v>
+        <v>1150000</v>
       </c>
       <c r="I146">
-        <v>1052100</v>
+        <v>701400</v>
       </c>
       <c r="J146">
-        <v>386686</v>
+        <v>257790.66666700001</v>
       </c>
       <c r="K146" t="s">
         <v>170</v>
@@ -20817,7 +20817,7 @@
         <v>13736047</v>
       </c>
       <c r="C147">
-        <v>6.2E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D147">
         <v>93.002927</v>
@@ -20829,16 +20829,16 @@
         <v>4063523</v>
       </c>
       <c r="G147">
-        <v>4680263</v>
+        <v>2340131.5</v>
       </c>
       <c r="H147">
-        <v>2715000</v>
+        <v>1357500</v>
       </c>
       <c r="I147">
-        <v>1371900</v>
+        <v>685950</v>
       </c>
       <c r="J147">
-        <v>593363</v>
+        <v>296681.5</v>
       </c>
       <c r="K147" t="s">
         <v>170</v>
@@ -20861,7 +20861,7 @@
         <v>25321910.600000001</v>
       </c>
       <c r="C148">
-        <v>0.23200000000000001</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="D148">
         <v>91.064502000000005</v>
@@ -20873,16 +20873,16 @@
         <v>5110131.3333329996</v>
       </c>
       <c r="G148">
-        <v>8027809</v>
+        <v>2675936.3333330001</v>
       </c>
       <c r="H148">
-        <v>4822500</v>
+        <v>1607500</v>
       </c>
       <c r="I148">
-        <v>2358600</v>
+        <v>786200</v>
       </c>
       <c r="J148">
-        <v>846709</v>
+        <v>282236.33333300002</v>
       </c>
       <c r="K148" t="s">
         <v>170</v>
@@ -20905,7 +20905,7 @@
         <v>6581723.2000000002</v>
       </c>
       <c r="C149">
-        <v>4.2999999999999997E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D149">
         <v>95.622620999999995</v>
@@ -20917,16 +20917,16 @@
         <v>2493600</v>
       </c>
       <c r="G149">
-        <v>2165486</v>
+        <v>1443657.3333330001</v>
       </c>
       <c r="H149">
-        <v>1102500</v>
+        <v>735000</v>
       </c>
       <c r="I149">
-        <v>676300</v>
+        <v>450866.66666699998</v>
       </c>
       <c r="J149">
-        <v>386686</v>
+        <v>257790.66666700001</v>
       </c>
       <c r="K149" t="s">
         <v>170</v>
@@ -20949,7 +20949,7 @@
         <v>12293765</v>
       </c>
       <c r="C150">
-        <v>5.6000000000000001E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D150">
         <v>94.221977999999993</v>
@@ -20961,16 +20961,16 @@
         <v>3468969</v>
       </c>
       <c r="G150">
-        <v>4043027</v>
+        <v>2021513.5</v>
       </c>
       <c r="H150">
-        <v>2197500</v>
+        <v>1098750</v>
       </c>
       <c r="I150">
-        <v>1305500</v>
+        <v>652750</v>
       </c>
       <c r="J150">
-        <v>540027</v>
+        <v>270013.5</v>
       </c>
       <c r="K150" t="s">
         <v>170</v>
@@ -20993,7 +20993,7 @@
         <v>23646624.199999999</v>
       </c>
       <c r="C151">
-        <v>0.13600000000000001</v>
+        <v>0.123</v>
       </c>
       <c r="D151">
         <v>91.428250000000006</v>
@@ -21005,16 +21005,16 @@
         <v>4886978.9333330002</v>
       </c>
       <c r="G151">
-        <v>7092707</v>
+        <v>2364235.6666669999</v>
       </c>
       <c r="H151">
-        <v>4072500</v>
+        <v>1357500</v>
       </c>
       <c r="I151">
-        <v>2213500</v>
+        <v>737833.33333299996</v>
       </c>
       <c r="J151">
-        <v>806707</v>
+        <v>268902.33333300002</v>
       </c>
       <c r="K151" t="s">
         <v>170</v>
@@ -21037,7 +21037,7 @@
         <v>9654131</v>
       </c>
       <c r="C152">
-        <v>4.3999999999999997E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D152">
         <v>93.093710999999999</v>
@@ -21049,16 +21049,16 @@
         <v>3613279.4666670002</v>
       </c>
       <c r="G152">
-        <v>3511189</v>
+        <v>2340792.6666669999</v>
       </c>
       <c r="H152">
-        <v>1755000</v>
+        <v>1170000</v>
       </c>
       <c r="I152">
-        <v>1309500</v>
+        <v>873000</v>
       </c>
       <c r="J152">
-        <v>446689</v>
+        <v>297792.66666699998</v>
       </c>
       <c r="K152" t="s">
         <v>170</v>
@@ -21081,7 +21081,7 @@
         <v>15088195.800000001</v>
       </c>
       <c r="C153">
-        <v>6.7000000000000004E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D153">
         <v>91.232118</v>
@@ -21093,16 +21093,16 @@
         <v>4480482.5999999996</v>
       </c>
       <c r="G153">
-        <v>5017397</v>
+        <v>2508698.5</v>
       </c>
       <c r="H153">
-        <v>2767500</v>
+        <v>1383750</v>
       </c>
       <c r="I153">
-        <v>1643200</v>
+        <v>821600</v>
       </c>
       <c r="J153">
-        <v>606697</v>
+        <v>303348.5</v>
       </c>
       <c r="K153" t="s">
         <v>170</v>
@@ -21125,7 +21125,7 @@
         <v>23718511.600000001</v>
       </c>
       <c r="C154">
-        <v>0.13200000000000001</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="D154">
         <v>94.491743999999997</v>
@@ -21137,16 +21137,16 @@
         <v>2805004.8</v>
       </c>
       <c r="G154">
-        <v>13691180</v>
+        <v>4563726.6666670004</v>
       </c>
       <c r="H154">
-        <v>8910000</v>
+        <v>2970000</v>
       </c>
       <c r="I154">
-        <v>3847800</v>
+        <v>1282600</v>
       </c>
       <c r="J154">
-        <v>933380</v>
+        <v>311126.66666699998</v>
       </c>
       <c r="K154" t="s">
         <v>170</v>
@@ -21169,7 +21169,7 @@
         <v>6894284</v>
       </c>
       <c r="C155">
-        <v>0.04</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D155">
         <v>95.205808000000005</v>
@@ -21181,16 +21181,16 @@
         <v>2369343.2000000002</v>
       </c>
       <c r="G155">
-        <v>2609152</v>
+        <v>1739434.6666669999</v>
       </c>
       <c r="H155">
-        <v>1620000</v>
+        <v>1080000</v>
       </c>
       <c r="I155">
-        <v>615800</v>
+        <v>410533.33333300002</v>
       </c>
       <c r="J155">
-        <v>373352</v>
+        <v>248901.33333299999</v>
       </c>
       <c r="K155" t="s">
         <v>170</v>
@@ -21213,7 +21213,7 @@
         <v>9512023.4000000004</v>
       </c>
       <c r="C156">
-        <v>6.8000000000000005E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D156">
         <v>95.223356999999993</v>
@@ -21225,16 +21225,16 @@
         <v>2467512</v>
       </c>
       <c r="G156">
-        <v>3506257</v>
+        <v>1753128.5</v>
       </c>
       <c r="H156">
-        <v>2145000</v>
+        <v>1072500</v>
       </c>
       <c r="I156">
-        <v>887900</v>
+        <v>443950</v>
       </c>
       <c r="J156">
-        <v>473357</v>
+        <v>236678.5</v>
       </c>
       <c r="K156" t="s">
         <v>170</v>
@@ -21257,7 +21257,7 @@
         <v>19358558</v>
       </c>
       <c r="C157">
-        <v>0.12</v>
+        <v>0.128</v>
       </c>
       <c r="D157">
         <v>92.879249999999999</v>
@@ -21269,16 +21269,16 @@
         <v>3806985.733333</v>
       </c>
       <c r="G157">
-        <v>6447240</v>
+        <v>2149080</v>
       </c>
       <c r="H157">
-        <v>3840000</v>
+        <v>1280000</v>
       </c>
       <c r="I157">
-        <v>1807200</v>
+        <v>602400</v>
       </c>
       <c r="J157">
-        <v>800040</v>
+        <v>266680</v>
       </c>
       <c r="K157" t="s">
         <v>170</v>
@@ -21301,7 +21301,7 @@
         <v>6177605.7999999998</v>
       </c>
       <c r="C158">
-        <v>4.4999999999999998E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D158">
         <v>96.452025000000006</v>
@@ -21313,16 +21313,16 @@
         <v>1984518.4</v>
       </c>
       <c r="G158">
-        <v>2576221</v>
+        <v>1717480.6666669999</v>
       </c>
       <c r="H158">
-        <v>1155000</v>
+        <v>770000</v>
       </c>
       <c r="I158">
-        <v>1001200</v>
+        <v>667466.66666700004</v>
       </c>
       <c r="J158">
-        <v>420021</v>
+        <v>280014</v>
       </c>
       <c r="K158" t="s">
         <v>184</v>
@@ -21345,7 +21345,7 @@
         <v>11067897.4</v>
       </c>
       <c r="C159">
-        <v>6.8000000000000005E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D159">
         <v>95.354973000000001</v>
@@ -21357,16 +21357,16 @@
         <v>2611606.4</v>
       </c>
       <c r="G159">
-        <v>4544929</v>
+        <v>2272464.5</v>
       </c>
       <c r="H159">
-        <v>1860000</v>
+        <v>930000</v>
       </c>
       <c r="I159">
-        <v>2104900</v>
+        <v>1052450</v>
       </c>
       <c r="J159">
-        <v>580029</v>
+        <v>290014.5</v>
       </c>
       <c r="K159" t="s">
         <v>184</v>
@@ -21389,7 +21389,7 @@
         <v>19526654</v>
       </c>
       <c r="C160">
-        <v>0.14299999999999999</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="D160">
         <v>94.003567000000004</v>
@@ -21401,16 +21401,16 @@
         <v>3133380.8</v>
       </c>
       <c r="G160">
-        <v>8260978</v>
+        <v>2753659.3333330001</v>
       </c>
       <c r="H160">
-        <v>3735000</v>
+        <v>1245000</v>
       </c>
       <c r="I160">
-        <v>3632600</v>
+        <v>1210866.6666669999</v>
       </c>
       <c r="J160">
-        <v>893378</v>
+        <v>297792.66666699998</v>
       </c>
       <c r="K160" t="s">
         <v>184</v>
@@ -21433,7 +21433,7 @@
         <v>6084316.7999999998</v>
       </c>
       <c r="C161">
-        <v>4.1000000000000002E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="D161">
         <v>96.677898999999996</v>
@@ -21445,16 +21445,16 @@
         <v>1849912.8</v>
       </c>
       <c r="G161">
-        <v>2706686</v>
+        <v>1804457.3333330001</v>
       </c>
       <c r="H161">
-        <v>1335000</v>
+        <v>890000</v>
       </c>
       <c r="I161">
-        <v>985000</v>
+        <v>656666.66666700004</v>
       </c>
       <c r="J161">
-        <v>386686</v>
+        <v>257790.66666700001</v>
       </c>
       <c r="K161" t="s">
         <v>184</v>
@@ -21477,7 +21477,7 @@
         <v>9720985.5999999996</v>
       </c>
       <c r="C162">
-        <v>0.08</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D162">
         <v>95.451974000000007</v>
@@ -21489,16 +21489,16 @@
         <v>2170300.4</v>
       </c>
       <c r="G162">
-        <v>4489726</v>
+        <v>2244863</v>
       </c>
       <c r="H162">
-        <v>2145000</v>
+        <v>1072500</v>
       </c>
       <c r="I162">
-        <v>1824700</v>
+        <v>912350</v>
       </c>
       <c r="J162">
-        <v>520026</v>
+        <v>260013</v>
       </c>
       <c r="K162" t="s">
         <v>184</v>
@@ -21521,7 +21521,7 @@
         <v>19881464.600000001</v>
       </c>
       <c r="C163">
-        <v>0.14899999999999999</v>
+        <v>0.154</v>
       </c>
       <c r="D163">
         <v>93.149107000000001</v>
@@ -21533,16 +21533,16 @@
         <v>3538483.0666669998</v>
       </c>
       <c r="G163">
-        <v>7385309</v>
+        <v>2461769.6666669999</v>
       </c>
       <c r="H163">
-        <v>3195000</v>
+        <v>1065000</v>
       </c>
       <c r="I163">
-        <v>3343600</v>
+        <v>1114533.3333330001</v>
       </c>
       <c r="J163">
-        <v>846709</v>
+        <v>282236.33333300002</v>
       </c>
       <c r="K163" t="s">
         <v>184</v>
@@ -21565,7 +21565,7 @@
         <v>8675046.1999999993</v>
       </c>
       <c r="C164">
-        <v>4.2999999999999997E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D164">
         <v>94.951967999999994</v>
@@ -21577,16 +21577,16 @@
         <v>2622778.1333329999</v>
       </c>
       <c r="G164">
-        <v>3893291</v>
+        <v>2595527.3333330001</v>
       </c>
       <c r="H164">
-        <v>1597500</v>
+        <v>1065000</v>
       </c>
       <c r="I164">
-        <v>1809100</v>
+        <v>1206066.6666669999</v>
       </c>
       <c r="J164">
-        <v>486691</v>
+        <v>324460.66666699998</v>
       </c>
       <c r="K164" t="s">
         <v>184</v>
@@ -21609,7 +21609,7 @@
         <v>16239580.800000001</v>
       </c>
       <c r="C165">
-        <v>5.8999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D165">
         <v>90.895616000000004</v>
@@ -21621,16 +21621,16 @@
         <v>4656120.8</v>
       </c>
       <c r="G165">
-        <v>5156598</v>
+        <v>2578299</v>
       </c>
       <c r="H165">
-        <v>1912500</v>
+        <v>956250</v>
       </c>
       <c r="I165">
-        <v>2617400</v>
+        <v>1308700</v>
       </c>
       <c r="J165">
-        <v>626698</v>
+        <v>313349</v>
       </c>
       <c r="K165" t="s">
         <v>184</v>
@@ -21653,7 +21653,7 @@
         <v>22221320.399999999</v>
       </c>
       <c r="C166">
-        <v>0.45700000000000002</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D166">
         <v>92.089303999999998</v>
@@ -21665,16 +21665,16 @@
         <v>3981827.4666670002</v>
       </c>
       <c r="G166">
-        <v>8588378</v>
+        <v>2862792.6666669999</v>
       </c>
       <c r="H166">
-        <v>3637500</v>
+        <v>1212500</v>
       </c>
       <c r="I166">
-        <v>4057500</v>
+        <v>1352500</v>
       </c>
       <c r="J166">
-        <v>893378</v>
+        <v>297792.66666699998</v>
       </c>
       <c r="K166" t="s">
         <v>184</v>
@@ -21697,7 +21697,7 @@
         <v>5800622.7999999998</v>
       </c>
       <c r="C167">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D167">
         <v>96.549257999999995</v>
@@ -21709,16 +21709,16 @@
         <v>1689759.733333</v>
       </c>
       <c r="G167">
-        <v>2459952</v>
+        <v>1639968</v>
       </c>
       <c r="H167">
-        <v>1282500</v>
+        <v>855000</v>
       </c>
       <c r="I167">
-        <v>804100</v>
+        <v>536066.66666700004</v>
       </c>
       <c r="J167">
-        <v>373352</v>
+        <v>248901.33333299999</v>
       </c>
       <c r="K167" t="s">
         <v>184</v>
@@ -21741,7 +21741,7 @@
         <v>7673136</v>
       </c>
       <c r="C168">
-        <v>7.1999999999999995E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D168">
         <v>96.138097999999999</v>
@@ -21753,16 +21753,16 @@
         <v>1761096.2</v>
       </c>
       <c r="G168">
-        <v>3342390</v>
+        <v>1671195</v>
       </c>
       <c r="H168">
-        <v>1702500</v>
+        <v>851250</v>
       </c>
       <c r="I168">
-        <v>1173200</v>
+        <v>586600</v>
       </c>
       <c r="J168">
-        <v>466690</v>
+        <v>233345</v>
       </c>
       <c r="K168" t="s">
         <v>184</v>
@@ -21785,7 +21785,7 @@
         <v>13766619.6</v>
       </c>
       <c r="C169">
-        <v>0.17100000000000001</v>
+        <v>0.129</v>
       </c>
       <c r="D169">
         <v>95.8386</v>
@@ -21797,16 +21797,16 @@
         <v>2130383.8666670001</v>
       </c>
       <c r="G169">
-        <v>6142608</v>
+        <v>2047536</v>
       </c>
       <c r="H169">
-        <v>2775000</v>
+        <v>925000</v>
       </c>
       <c r="I169">
-        <v>2540900</v>
+        <v>846966.66666700004</v>
       </c>
       <c r="J169">
-        <v>826708</v>
+        <v>275569.33333300002</v>
       </c>
       <c r="K169" t="s">
         <v>184</v>
@@ -21829,7 +21829,7 @@
         <v>6304430.4000000004</v>
       </c>
       <c r="C170">
-        <v>4.4999999999999998E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D170">
         <v>96.362301000000002</v>
@@ -21841,16 +21841,16 @@
         <v>1797744.8</v>
       </c>
       <c r="G170">
-        <v>3495726</v>
+        <v>2330484</v>
       </c>
       <c r="H170">
-        <v>1155000</v>
+        <v>770000</v>
       </c>
       <c r="I170">
-        <v>1820700</v>
+        <v>1213800</v>
       </c>
       <c r="J170">
-        <v>520026</v>
+        <v>346684</v>
       </c>
       <c r="K170" t="s">
         <v>184</v>
@@ -21885,16 +21885,16 @@
         <v>2025600.2</v>
       </c>
       <c r="G171">
-        <v>5261834</v>
+        <v>2630917</v>
       </c>
       <c r="H171">
-        <v>1522500</v>
+        <v>761250</v>
       </c>
       <c r="I171">
-        <v>3059300</v>
+        <v>1529650</v>
       </c>
       <c r="J171">
-        <v>680034</v>
+        <v>340017</v>
       </c>
       <c r="K171" t="s">
         <v>184</v>
@@ -21917,7 +21917,7 @@
         <v>14235250.4</v>
       </c>
       <c r="C172">
-        <v>0.13100000000000001</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="D172">
         <v>96.241521000000006</v>
@@ -21929,16 +21929,16 @@
         <v>1849092.6666669999</v>
       </c>
       <c r="G172">
-        <v>8147722</v>
+        <v>2715907.3333330001</v>
       </c>
       <c r="H172">
-        <v>2310000</v>
+        <v>770000</v>
       </c>
       <c r="I172">
-        <v>4731000</v>
+        <v>1577000</v>
       </c>
       <c r="J172">
-        <v>1106722</v>
+        <v>368907.33333300002</v>
       </c>
       <c r="K172" t="s">
         <v>184</v>
@@ -21961,7 +21961,7 @@
         <v>5895032.7999999998</v>
       </c>
       <c r="C173">
-        <v>4.2999999999999997E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D173">
         <v>96.618150999999997</v>
@@ -21973,16 +21973,16 @@
         <v>1615379.733333</v>
       </c>
       <c r="G173">
-        <v>3123890</v>
+        <v>2082593.3333330001</v>
       </c>
       <c r="H173">
-        <v>997500</v>
+        <v>665000</v>
       </c>
       <c r="I173">
-        <v>1659700</v>
+        <v>1106466.6666669999</v>
       </c>
       <c r="J173">
-        <v>466690</v>
+        <v>311126.66666699998</v>
       </c>
       <c r="K173" t="s">
         <v>184</v>
@@ -22005,7 +22005,7 @@
         <v>9704248.5999999996</v>
       </c>
       <c r="C174">
-        <v>0.09</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D174">
         <v>96.229353000000003</v>
@@ -22017,16 +22017,16 @@
         <v>1887277.4</v>
       </c>
       <c r="G174">
-        <v>5235935</v>
+        <v>2617967.5</v>
       </c>
       <c r="H174">
-        <v>1470000</v>
+        <v>735000</v>
       </c>
       <c r="I174">
-        <v>3065900</v>
+        <v>1532950</v>
       </c>
       <c r="J174">
-        <v>700035</v>
+        <v>350017.5</v>
       </c>
       <c r="K174" t="s">
         <v>184</v>
@@ -22049,7 +22049,7 @@
         <v>12893271.4</v>
       </c>
       <c r="C175">
-        <v>0.14099999999999999</v>
+        <v>0.111</v>
       </c>
       <c r="D175">
         <v>96.525383000000005</v>
@@ -22061,16 +22061,16 @@
         <v>1663941.733333</v>
       </c>
       <c r="G175">
-        <v>7426787</v>
+        <v>2475595.6666669999</v>
       </c>
       <c r="H175">
-        <v>2257500</v>
+        <v>752500</v>
       </c>
       <c r="I175">
-        <v>4095900</v>
+        <v>1365300</v>
       </c>
       <c r="J175">
-        <v>1073387</v>
+        <v>357795.66666699998</v>
       </c>
       <c r="K175" t="s">
         <v>184</v>
@@ -22093,7 +22093,7 @@
         <v>7010963.7999999998</v>
       </c>
       <c r="C176">
-        <v>4.3999999999999997E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D176">
         <v>96.318268000000003</v>
@@ -22105,16 +22105,16 @@
         <v>1901160</v>
       </c>
       <c r="G176">
-        <v>3951461</v>
+        <v>2634307.3333330001</v>
       </c>
       <c r="H176">
-        <v>1260000</v>
+        <v>840000</v>
       </c>
       <c r="I176">
-        <v>2138100</v>
+        <v>1425400</v>
       </c>
       <c r="J176">
-        <v>553361</v>
+        <v>368907.33333300002</v>
       </c>
       <c r="K176" t="s">
         <v>184</v>
@@ -22137,7 +22137,7 @@
         <v>9372011.1999999993</v>
       </c>
       <c r="C177">
-        <v>0.06</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D177">
         <v>96.372020000000006</v>
@@ -22149,16 +22149,16 @@
         <v>1875994.8</v>
       </c>
       <c r="G177">
-        <v>5234204</v>
+        <v>2617102</v>
       </c>
       <c r="H177">
-        <v>1575000</v>
+        <v>787500</v>
       </c>
       <c r="I177">
-        <v>2912500</v>
+        <v>1456250</v>
       </c>
       <c r="J177">
-        <v>746704</v>
+        <v>373352</v>
       </c>
       <c r="K177" t="s">
         <v>184</v>
@@ -22181,7 +22181,7 @@
         <v>16222219</v>
       </c>
       <c r="C178">
-        <v>0.11799999999999999</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="D178">
         <v>95.935695999999993</v>
@@ -22193,16 +22193,16 @@
         <v>2055748.266667</v>
       </c>
       <c r="G178">
-        <v>9486263</v>
+        <v>3162087.6666669999</v>
       </c>
       <c r="H178">
-        <v>2572500</v>
+        <v>857500</v>
       </c>
       <c r="I178">
-        <v>5653700</v>
+        <v>1884566.6666669999</v>
       </c>
       <c r="J178">
-        <v>1260063</v>
+        <v>420021</v>
       </c>
       <c r="K178" t="s">
         <v>184</v>
@@ -22225,7 +22225,7 @@
         <v>4720216.2</v>
       </c>
       <c r="C179">
-        <v>4.2000000000000003E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D179">
         <v>96.843259000000003</v>
@@ -22237,16 +22237,16 @@
         <v>1353840.8</v>
       </c>
       <c r="G179">
-        <v>2505921</v>
+        <v>1670614</v>
       </c>
       <c r="H179">
-        <v>892500</v>
+        <v>595000</v>
       </c>
       <c r="I179">
-        <v>1193400</v>
+        <v>795600</v>
       </c>
       <c r="J179">
-        <v>420021</v>
+        <v>280014</v>
       </c>
       <c r="K179" t="s">
         <v>184</v>
@@ -22269,7 +22269,7 @@
         <v>6858018.2000000002</v>
       </c>
       <c r="C180">
-        <v>5.7000000000000002E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D180">
         <v>96.104461000000001</v>
@@ -22281,16 +22281,16 @@
         <v>1376037.6</v>
       </c>
       <c r="G180">
-        <v>3835797</v>
+        <v>1917898.5</v>
       </c>
       <c r="H180">
-        <v>1260000</v>
+        <v>630000</v>
       </c>
       <c r="I180">
-        <v>1969100</v>
+        <v>984550</v>
       </c>
       <c r="J180">
-        <v>606697</v>
+        <v>303348.5</v>
       </c>
       <c r="K180" t="s">
         <v>184</v>
@@ -22313,7 +22313,7 @@
         <v>14098338.4</v>
       </c>
       <c r="C181">
-        <v>0.13200000000000001</v>
+        <v>0.112</v>
       </c>
       <c r="D181">
         <v>95.392835000000005</v>
@@ -22325,16 +22325,16 @@
         <v>1819483.2</v>
       </c>
       <c r="G181">
-        <v>7882188</v>
+        <v>2627396</v>
       </c>
       <c r="H181">
-        <v>2100000</v>
+        <v>700000</v>
       </c>
       <c r="I181">
-        <v>4688800</v>
+        <v>1562933.3333330001</v>
       </c>
       <c r="J181">
-        <v>1093388</v>
+        <v>364462.66666699998</v>
       </c>
       <c r="K181" t="s">
         <v>184</v>
@@ -22357,7 +22357,7 @@
         <v>6227149</v>
       </c>
       <c r="C182">
-        <v>4.3999999999999997E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D182">
         <v>96.741602</v>
@@ -22369,16 +22369,16 @@
         <v>1751208.8</v>
       </c>
       <c r="G182">
-        <v>3199223</v>
+        <v>2132815.3333330001</v>
       </c>
       <c r="H182">
-        <v>1102500</v>
+        <v>735000</v>
       </c>
       <c r="I182">
-        <v>1636700</v>
+        <v>1091133.3333330001</v>
       </c>
       <c r="J182">
-        <v>460023</v>
+        <v>306682</v>
       </c>
       <c r="K182" t="s">
         <v>184</v>
@@ -22401,7 +22401,7 @@
         <v>9314152.8000000007</v>
       </c>
       <c r="C183">
-        <v>6.9000000000000006E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D183">
         <v>96.369921000000005</v>
@@ -22413,16 +22413,16 @@
         <v>1833147.8</v>
       </c>
       <c r="G183">
-        <v>5087602</v>
+        <v>2543801</v>
       </c>
       <c r="H183">
-        <v>1522500</v>
+        <v>761250</v>
       </c>
       <c r="I183">
-        <v>2858400</v>
+        <v>1429200</v>
       </c>
       <c r="J183">
-        <v>706702</v>
+        <v>353351</v>
       </c>
       <c r="K183" t="s">
         <v>184</v>
@@ -22445,7 +22445,7 @@
         <v>14866185</v>
       </c>
       <c r="C184">
-        <v>0.125</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="D184">
         <v>96.127651999999998</v>
@@ -22457,16 +22457,16 @@
         <v>1928711.6</v>
       </c>
       <c r="G184">
-        <v>8250457</v>
+        <v>2750152.3333330001</v>
       </c>
       <c r="H184">
-        <v>2257500</v>
+        <v>752500</v>
       </c>
       <c r="I184">
-        <v>4852900</v>
+        <v>1617633.3333330001</v>
       </c>
       <c r="J184">
-        <v>1140057</v>
+        <v>380019</v>
       </c>
       <c r="K184" t="s">
         <v>184</v>
@@ -22489,7 +22489,7 @@
         <v>5593403.7999999998</v>
       </c>
       <c r="C185">
-        <v>4.8000000000000001E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D185">
         <v>96.846217999999993</v>
@@ -22501,16 +22501,16 @@
         <v>1623339.733333</v>
       </c>
       <c r="G185">
-        <v>2751923</v>
+        <v>1834615.3333330001</v>
       </c>
       <c r="H185">
-        <v>1050000</v>
+        <v>700000</v>
       </c>
       <c r="I185">
-        <v>1241900</v>
+        <v>827933.33333299996</v>
       </c>
       <c r="J185">
-        <v>460023</v>
+        <v>306682</v>
       </c>
       <c r="K185" t="s">
         <v>184</v>
@@ -22533,7 +22533,7 @@
         <v>7795905.7999999998</v>
       </c>
       <c r="C186">
-        <v>5.6000000000000001E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D186">
         <v>96.869117000000003</v>
@@ -22545,16 +22545,16 @@
         <v>1566757.8</v>
       </c>
       <c r="G186">
-        <v>4190467</v>
+        <v>2095233.5</v>
       </c>
       <c r="H186">
-        <v>1365000</v>
+        <v>682500</v>
       </c>
       <c r="I186">
-        <v>2152100</v>
+        <v>1076050</v>
       </c>
       <c r="J186">
-        <v>673367</v>
+        <v>336683.5</v>
       </c>
       <c r="K186" t="s">
         <v>184</v>
@@ -22577,7 +22577,7 @@
         <v>14531026.800000001</v>
       </c>
       <c r="C187">
-        <v>0.13100000000000001</v>
+        <v>0.113</v>
       </c>
       <c r="D187">
         <v>96.101545000000002</v>
@@ -22589,16 +22589,16 @@
         <v>1817031.0666670001</v>
       </c>
       <c r="G187">
-        <v>8331584</v>
+        <v>2777194.6666669999</v>
       </c>
       <c r="H187">
-        <v>2362500</v>
+        <v>787500</v>
       </c>
       <c r="I187">
-        <v>4955700</v>
+        <v>1651900</v>
       </c>
       <c r="J187">
-        <v>1013384</v>
+        <v>337794.66666699998</v>
       </c>
       <c r="K187" t="s">
         <v>184</v>
@@ -22633,16 +22633,16 @@
         <v>1758060.533333</v>
       </c>
       <c r="G188">
-        <v>3844662</v>
+        <v>2563108</v>
       </c>
       <c r="H188">
-        <v>1207500</v>
+        <v>805000</v>
       </c>
       <c r="I188">
-        <v>2063800</v>
+        <v>1375866.6666669999</v>
       </c>
       <c r="J188">
-        <v>573362</v>
+        <v>382241.33333300002</v>
       </c>
       <c r="K188" t="s">
         <v>184</v>
@@ -22665,7 +22665,7 @@
         <v>10174471.199999999</v>
       </c>
       <c r="C189">
-        <v>7.0000000000000007E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D189">
         <v>96.25421</v>
@@ -22677,16 +22677,16 @@
         <v>1950742</v>
       </c>
       <c r="G189">
-        <v>5553972</v>
+        <v>2776986</v>
       </c>
       <c r="H189">
-        <v>1522500</v>
+        <v>761250</v>
       </c>
       <c r="I189">
-        <v>3258100</v>
+        <v>1629050</v>
       </c>
       <c r="J189">
-        <v>773372</v>
+        <v>386686</v>
       </c>
       <c r="K189" t="s">
         <v>184</v>
@@ -22709,7 +22709,7 @@
         <v>16359598.4</v>
       </c>
       <c r="C190">
-        <v>0.13700000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="D190">
         <v>95.977458999999996</v>
@@ -22721,16 +22721,16 @@
         <v>1995320.4</v>
       </c>
       <c r="G190">
-        <v>9509626</v>
+        <v>3169875.3333330001</v>
       </c>
       <c r="H190">
-        <v>2520000</v>
+        <v>840000</v>
       </c>
       <c r="I190">
-        <v>5802900</v>
+        <v>1934300</v>
       </c>
       <c r="J190">
-        <v>1186726</v>
+        <v>395575.33333300002</v>
       </c>
       <c r="K190" t="s">
         <v>184</v>
@@ -22753,7 +22753,7 @@
         <v>4119461.2</v>
       </c>
       <c r="C191">
-        <v>0.05</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D191">
         <v>97.362151999999995</v>
@@ -22765,16 +22765,16 @@
         <v>1162773.3333330001</v>
       </c>
       <c r="G191">
-        <v>1982354</v>
+        <v>1321569.3333330001</v>
       </c>
       <c r="H191">
-        <v>840000</v>
+        <v>560000</v>
       </c>
       <c r="I191">
-        <v>729000</v>
+        <v>486000</v>
       </c>
       <c r="J191">
-        <v>413354</v>
+        <v>275569.33333300002</v>
       </c>
       <c r="K191" t="s">
         <v>184</v>
@@ -22797,7 +22797,7 @@
         <v>7430130</v>
       </c>
       <c r="C192">
-        <v>6.8000000000000005E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D192">
         <v>96.586382999999998</v>
@@ -22809,16 +22809,16 @@
         <v>1470955</v>
       </c>
       <c r="G192">
-        <v>3812030</v>
+        <v>1906015</v>
       </c>
       <c r="H192">
-        <v>1207500</v>
+        <v>603750</v>
       </c>
       <c r="I192">
-        <v>2004500</v>
+        <v>1002250</v>
       </c>
       <c r="J192">
-        <v>600030</v>
+        <v>300015</v>
       </c>
       <c r="K192" t="s">
         <v>184</v>
@@ -22841,7 +22841,7 @@
         <v>12229721.6</v>
       </c>
       <c r="C193">
-        <v>0.125</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="D193">
         <v>96.311280999999994</v>
@@ -22853,16 +22853,16 @@
         <v>1589232.6666669999</v>
       </c>
       <c r="G193">
-        <v>6781582</v>
+        <v>2260527.3333330001</v>
       </c>
       <c r="H193">
-        <v>2205000</v>
+        <v>735000</v>
       </c>
       <c r="I193">
-        <v>3603200</v>
+        <v>1201066.6666669999</v>
       </c>
       <c r="J193">
-        <v>973382</v>
+        <v>324460.66666699998</v>
       </c>
       <c r="K193" t="s">
         <v>184</v>
@@ -22954,7 +22954,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C, Collective!$K:$K&lt;&gt;"NO"))</f>
-        <v>0.11303333333333335</v>
+        <v>9.6177777777777723E-2</v>
       </c>
       <c r="D2" cm="1">
         <f t="array" ref="D2">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D, Collective!$K:$K&lt;&gt;"NO"))</f>
@@ -22970,19 +22970,19 @@
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G, Collective!$K:$K&lt;&gt;"NO"))</f>
-        <v>5270465.8</v>
+        <v>2348865.4851851836</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H, Collective!$K:$K&lt;&gt;"NO"))</f>
-        <v>2441041.6666666665</v>
+        <v>1083187.5</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I, Collective!$K:$K&lt;&gt;"NO"))</f>
-        <v>2235616.6666666665</v>
+        <v>994232.31481483928</v>
       </c>
       <c r="J2" cm="1">
         <f t="array" ref="J2">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J, Collective!$K:$K&lt;&gt;"NO"))</f>
-        <v>593807.46666666667</v>
+        <v>271445.67037037225</v>
       </c>
       <c r="M2" s="1"/>
     </row>
@@ -22996,7 +22996,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C, Collective!$K:$K="NO"))</f>
-        <v>8.8000000000000009E-2</v>
+        <v>8.8333333333333333E-2</v>
       </c>
       <c r="D3" cm="1">
         <f t="array" ref="D3">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D, Collective!$K:$K="NO"))</f>
@@ -23012,19 +23012,19 @@
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G, Collective!$K:$K="NO"))</f>
-        <v>5329624.416666667</v>
+        <v>2334127.1666667499</v>
       </c>
       <c r="H3" cm="1">
         <f t="array" ref="H3">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H, Collective!$K:$K="NO"))</f>
-        <v>3139375</v>
+        <v>1355208.3333333333</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" ref="I3">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I, Collective!$K:$K="NO"))</f>
-        <v>1590775</v>
+        <v>704090.27777775005</v>
       </c>
       <c r="J3" cm="1">
         <f t="array" ref="J3">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J, Collective!$K:$K="NO"))</f>
-        <v>599474.41666666663</v>
+        <v>274828.55555558333</v>
       </c>
     </row>
   </sheetData>
@@ -23096,7 +23096,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C, Collective!$K:$K=$A2))</f>
-        <v>9.816666666666668E-2</v>
+        <v>8.744444444444445E-2</v>
       </c>
       <c r="D2" cm="1">
         <f t="array" ref="D2">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D, Collective!$K:$K=$A2))</f>
@@ -23112,19 +23112,19 @@
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G, Collective!$K:$K=$A2))</f>
-        <v>5080492.027777778</v>
+        <v>2282270.6712963609</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H, Collective!$K:$K=$A2))</f>
-        <v>1825000</v>
+        <v>819166.66666666663</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I, Collective!$K:$K=$A2))</f>
-        <v>2655647.222222222</v>
+        <v>1188553.2407407777</v>
       </c>
       <c r="J2" cm="1">
         <f t="array" ref="J2">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J, Collective!$K:$K=$A2))</f>
-        <v>599844.8055555555</v>
+        <v>274550.76388888888</v>
       </c>
       <c r="M2" s="1"/>
     </row>
@@ -23138,7 +23138,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C, Collective!$K:$K=$A3))</f>
-        <v>0.13911111111111113</v>
+        <v>0.11494444444444445</v>
       </c>
       <c r="D3" cm="1">
         <f t="array" ref="D3">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D, Collective!$K:$K=$A3))</f>
@@ -23154,19 +23154,19 @@
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G, Collective!$K:$K=$A3))</f>
-        <v>5755943.527777778</v>
+        <v>2582857.2962963334</v>
       </c>
       <c r="H3" cm="1">
         <f t="array" ref="H3">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H, Collective!$K:$K=$A3))</f>
-        <v>2589166.6666666665</v>
+        <v>1158055.5555555555</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" ref="I3">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I, Collective!$K:$K=$A3))</f>
-        <v>2592488.888888889</v>
+        <v>1161578.7037036945</v>
       </c>
       <c r="J3" cm="1">
         <f t="array" ref="J3">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J, Collective!$K:$K=$A3))</f>
-        <v>574287.97222222225</v>
+        <v>263223.03703699994</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -23179,7 +23179,7 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C, Collective!$K:$K=$A4))</f>
-        <v>0.12972222222222224</v>
+        <v>0.11549999999999999</v>
       </c>
       <c r="D4" cm="1">
         <f t="array" ref="D4">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D, Collective!$K:$K=$A4))</f>
@@ -23195,19 +23195,19 @@
       </c>
       <c r="G4" cm="1">
         <f t="array" ref="G4">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G, Collective!$K:$K=$A4))</f>
-        <v>5036862.916666667</v>
+        <v>2225265.416666639</v>
       </c>
       <c r="H4" cm="1">
         <f t="array" ref="H4">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H, Collective!$K:$K=$A4))</f>
-        <v>2937291.6666666665</v>
+        <v>1287291.6666666667</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" ref="I4">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I, Collective!$K:$K=$A4))</f>
-        <v>1600472.2222222222</v>
+        <v>709875.92592591664</v>
       </c>
       <c r="J4" cm="1">
         <f t="array" ref="J4">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J, Collective!$K:$K=$A4))</f>
-        <v>499099.02777777775</v>
+        <v>228097.82407408339</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -23220,7 +23220,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C, Collective!$K:$K=$A5))</f>
-        <v>0.10633333333333334</v>
+        <v>8.0972222222222223E-2</v>
       </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D, Collective!$K:$K=$A5))</f>
@@ -23236,19 +23236,19 @@
       </c>
       <c r="G5" cm="1">
         <f t="array" ref="G5">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G, Collective!$K:$K=$A5))</f>
-        <v>5244856.194444444</v>
+        <v>2313245.8194444166</v>
       </c>
       <c r="H5" cm="1">
         <f t="array" ref="H5">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H, Collective!$K:$K=$A5))</f>
-        <v>3051875</v>
+        <v>1334062.5</v>
       </c>
       <c r="I5" cm="1">
         <f t="array" ref="I5">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I, Collective!$K:$K=$A5))</f>
-        <v>1606100</v>
+        <v>710929.16666672216</v>
       </c>
       <c r="J5" cm="1">
         <f t="array" ref="J5">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J, Collective!$K:$K=$A5))</f>
-        <v>586881.1944444445</v>
+        <v>268254.15277780552</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -23261,7 +23261,7 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C, Collective!$K:$K=$A6))</f>
-        <v>9.1833333333333336E-2</v>
+        <v>8.2027777777777755E-2</v>
       </c>
       <c r="D6" cm="1">
         <f t="array" ref="D6">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D, Collective!$K:$K=$A6))</f>
@@ -23277,19 +23277,19 @@
       </c>
       <c r="G6" cm="1">
         <f t="array" ref="G6">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G, Collective!$K:$K=$A6))</f>
-        <v>5234174.333333333</v>
+        <v>2340688.2222221666</v>
       </c>
       <c r="H6" cm="1">
         <f t="array" ref="H6">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H, Collective!$K:$K=$A6))</f>
-        <v>1801875</v>
+        <v>817361.11111111112</v>
       </c>
       <c r="I6" cm="1">
         <f t="array" ref="I6">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I, Collective!$K:$K=$A6))</f>
-        <v>2723375</v>
+        <v>1200224.5370370832</v>
       </c>
       <c r="J6" cm="1">
         <f t="array" ref="J6">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J, Collective!$K:$K=$A6))</f>
-        <v>708924.33333333337</v>
+        <v>323102.57407408336</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -23302,7 +23302,7 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C, Collective!$K:$K=$A7))</f>
-        <v>8.8000000000000009E-2</v>
+        <v>8.8333333333333333E-2</v>
       </c>
       <c r="D7" cm="1">
         <f t="array" ref="D7">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D, Collective!$K:$K=$A7))</f>
@@ -23318,19 +23318,19 @@
       </c>
       <c r="G7" cm="1">
         <f t="array" ref="G7">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G, Collective!$K:$K=$A7))</f>
-        <v>5329624.416666667</v>
+        <v>2334127.1666667499</v>
       </c>
       <c r="H7" cm="1">
         <f t="array" ref="H7">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H, Collective!$K:$K=$A7))</f>
-        <v>3139375</v>
+        <v>1355208.3333333333</v>
       </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I, Collective!$K:$K=$A7))</f>
-        <v>1590775</v>
+        <v>704090.27777775005</v>
       </c>
       <c r="J7" cm="1">
         <f t="array" ref="J7">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J, Collective!$K:$K=$A7))</f>
-        <v>599474.41666666663</v>
+        <v>274828.55555558333</v>
       </c>
     </row>
   </sheetData>
@@ -23403,7 +23403,7 @@
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C, Collective!$L:$L=$A2))</f>
-        <v>0.12691666666666668</v>
+        <v>0.11029999999999998</v>
       </c>
       <c r="D2" cm="1">
         <f t="array" ref="D2">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D, Collective!$L:$L=$A2))</f>
@@ -23419,19 +23419,19 @@
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G, Collective!$L:$L=$A2))</f>
-        <v>5339584.7166666668</v>
+        <v>2362116.5027777837</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H, Collective!$L:$L=$A2))</f>
-        <v>2772000</v>
+        <v>1216812.5</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I, Collective!$L:$L=$A2))</f>
-        <v>1973221.6666666667</v>
+        <v>872642.2222222666</v>
       </c>
       <c r="J2" cm="1">
         <f t="array" ref="J2">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J, Collective!$L:$L=$A2))</f>
-        <v>594363.05000000005</v>
+        <v>272661.78055555001</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -23444,7 +23444,7 @@
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C, Collective!$L:$L=$A3))</f>
-        <v>0.11721666666666666</v>
+        <v>9.6933333333333316E-2</v>
       </c>
       <c r="D3" cm="1">
         <f t="array" ref="D3">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D, Collective!$L:$L=$A3))</f>
@@ -23460,19 +23460,19 @@
       </c>
       <c r="G3" cm="1">
         <f t="array" ref="G3">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G, Collective!$L:$L=$A3))</f>
-        <v>5267145.9666666668</v>
+        <v>2352719.4277777667</v>
       </c>
       <c r="H3" cm="1">
         <f t="array" ref="H3">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H, Collective!$L:$L=$A3))</f>
-        <v>2258250</v>
+        <v>1006000</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" ref="I3">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I, Collective!$L:$L=$A3))</f>
-        <v>2411755</v>
+        <v>1074816.9444444501</v>
       </c>
       <c r="J3" cm="1">
         <f t="array" ref="J3">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J, Collective!$L:$L=$A3))</f>
-        <v>597140.96666666667</v>
+        <v>271902.48333331669</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -23485,7 +23485,7 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C, Collective!$L:$L=$A4))</f>
-        <v>9.4966666666666685E-2</v>
+        <v>8.1300000000000025E-2</v>
       </c>
       <c r="D4" cm="1">
         <f t="array" ref="D4">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D, Collective!$L:$L=$A4))</f>
@@ -23501,19 +23501,19 @@
       </c>
       <c r="G4" cm="1">
         <f t="array" ref="G4">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G, Collective!$L:$L=$A4))</f>
-        <v>5204666.7166666668</v>
+        <v>2331760.5249999994</v>
       </c>
       <c r="H4" cm="1">
         <f t="array" ref="H4">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H, Collective!$L:$L=$A4))</f>
-        <v>2292875</v>
+        <v>1026750</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" ref="I4">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I, Collective!$L:$L=$A4))</f>
-        <v>2321873.3333333335</v>
+        <v>1035237.7777778</v>
       </c>
       <c r="J4" cm="1">
         <f t="array" ref="J4">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J, Collective!$L:$L=$A4))</f>
-        <v>589918.3833333333</v>
+        <v>269772.74722225004</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -23526,7 +23526,7 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C, Collective!$L:$L=$A5))</f>
-        <v>8.8000000000000009E-2</v>
+        <v>8.8333333333333333E-2</v>
       </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D, Collective!$L:$L=$A5))</f>
@@ -23542,19 +23542,19 @@
       </c>
       <c r="G5" cm="1">
         <f t="array" ref="G5">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G, Collective!$L:$L=$A5))</f>
-        <v>5329624.416666667</v>
+        <v>2334127.1666667499</v>
       </c>
       <c r="H5" cm="1">
         <f t="array" ref="H5">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H, Collective!$L:$L=$A5))</f>
-        <v>3139375</v>
+        <v>1355208.3333333333</v>
       </c>
       <c r="I5" cm="1">
         <f t="array" ref="I5">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I, Collective!$L:$L=$A5))</f>
-        <v>1590775</v>
+        <v>704090.27777775005</v>
       </c>
       <c r="J5" cm="1">
         <f t="array" ref="J5">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J, Collective!$L:$L=$A5))</f>
-        <v>599474.41666666663</v>
+        <v>274828.55555558333</v>
       </c>
     </row>
   </sheetData>
@@ -23567,7 +23567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -23633,7 +23633,7 @@
       </c>
       <c r="D2" cm="1">
         <f t="array" ref="D2">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C,(Collective!$M:$M=$B2)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>0.10297777777777777</v>
+        <v>8.7644444444444428E-2</v>
       </c>
       <c r="E2" cm="1">
         <f t="array" ref="E2">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D,(Collective!$M:$M=$B2)*(Collective!$K:$K&lt;&gt;"NO")))</f>
@@ -23649,19 +23649,19 @@
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G,(Collective!$M:$M=$B2)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>5217533.1777777774</v>
+        <v>2344412.9851851999</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H,(Collective!$M:$M=$B2)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>2348833.3333333335</v>
+        <v>1052638.888888889</v>
       </c>
       <c r="J2" cm="1">
         <f t="array" ref="J2">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I,(Collective!$M:$M=$B2)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>2264373.3333333335</v>
+        <v>1014772.5925926222</v>
       </c>
       <c r="K2" cm="1">
         <f t="array" ref="K2">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J,(Collective!$M:$M=$B2)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>604326.51111111115</v>
+        <v>277001.50370366662</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -23677,7 +23677,7 @@
       </c>
       <c r="D3" cm="1">
         <f t="array" ref="D3">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C,(Collective!$M:$M=$B3)*(Collective!$K:$K="NO")))</f>
-        <v>0.11666666666666665</v>
+        <v>0.12333333333333334</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" ref="E3">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D,(Collective!$M:$M=$B3)*(Collective!$K:$K="NO")))</f>
@@ -23693,19 +23693,19 @@
       </c>
       <c r="H3" cm="1">
         <f t="array" ref="H3">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G,(Collective!$M:$M=$B3)*(Collective!$K:$K="NO")))</f>
-        <v>5290619.333333333</v>
+        <v>2375086.1666666665</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" ref="I3">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H,(Collective!$M:$M=$B3)*(Collective!$K:$K="NO")))</f>
-        <v>3087500</v>
+        <v>1371666.6666666667</v>
       </c>
       <c r="J3" cm="1">
         <f t="array" ref="J3">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I,(Collective!$M:$M=$B3)*(Collective!$K:$K="NO")))</f>
-        <v>1594200</v>
+        <v>724516.66666666663</v>
       </c>
       <c r="K3" cm="1">
         <f t="array" ref="K3">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J,(Collective!$M:$M=$B3)*(Collective!$K:$K="NO")))</f>
-        <v>608919.33333333337</v>
+        <v>278902.83333333331</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -23721,7 +23721,7 @@
       </c>
       <c r="D4" cm="1">
         <f t="array" ref="D4">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C,(Collective!$M:$M=$B4)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>0.10751111111111115</v>
+        <v>9.0266666666666676E-2</v>
       </c>
       <c r="E4" cm="1">
         <f t="array" ref="E4">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D,(Collective!$M:$M=$B4)*(Collective!$K:$K&lt;&gt;"NO")))</f>
@@ -23737,19 +23737,19 @@
       </c>
       <c r="H4" cm="1">
         <f t="array" ref="H4">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G,(Collective!$M:$M=$B4)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>4865873.5777777778</v>
+        <v>2185431.6999999778</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" ref="I4">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H,(Collective!$M:$M=$B4)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>2218500</v>
+        <v>1002166.6666666666</v>
       </c>
       <c r="J4" cm="1">
         <f t="array" ref="J4">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I,(Collective!$M:$M=$B4)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>2079493.3333333333</v>
+        <v>924560.74074073334</v>
       </c>
       <c r="K4" cm="1">
         <f t="array" ref="K4">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J,(Collective!$M:$M=$B4)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>567880.24444444443</v>
+        <v>258704.29259262217</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -23765,7 +23765,7 @@
       </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C,(Collective!$M:$M=$B5)*(Collective!$K:$K="NO")))</f>
-        <v>7.8333333333333338E-2</v>
+        <v>7.166666666666667E-2</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D,(Collective!$M:$M=$B5)*(Collective!$K:$K="NO")))</f>
@@ -23781,19 +23781,19 @@
       </c>
       <c r="H5" cm="1">
         <f t="array" ref="H5">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G,(Collective!$M:$M=$B5)*(Collective!$K:$K="NO")))</f>
-        <v>4433740</v>
+        <v>1943135.5</v>
       </c>
       <c r="I5" cm="1">
         <f t="array" ref="I5">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H,(Collective!$M:$M=$B5)*(Collective!$K:$K="NO")))</f>
-        <v>2457500</v>
+        <v>1063750</v>
       </c>
       <c r="J5" cm="1">
         <f t="array" ref="J5">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I,(Collective!$M:$M=$B5)*(Collective!$K:$K="NO")))</f>
-        <v>1398433.3333333333</v>
+        <v>613816.66666666663</v>
       </c>
       <c r="K5" cm="1">
         <f t="array" ref="K5">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J,(Collective!$M:$M=$B5)*(Collective!$K:$K="NO")))</f>
-        <v>577806.66666666663</v>
+        <v>265568.83333333331</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -23809,7 +23809,7 @@
       </c>
       <c r="D6" cm="1">
         <f t="array" ref="D6">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C,(Collective!$M:$M=$B6)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>0.1483555555555556</v>
+        <v>0.12675555555555562</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D,(Collective!$M:$M=$B6)*(Collective!$K:$K&lt;&gt;"NO")))</f>
@@ -23825,19 +23825,19 @@
       </c>
       <c r="H6" cm="1">
         <f t="array" ref="H6">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G,(Collective!$M:$M=$B6)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>6891416.5999999996</v>
+        <v>3040767.3481481331</v>
       </c>
       <c r="I6" cm="1">
         <f t="array" ref="I6">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H,(Collective!$M:$M=$B6)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>3266166.6666666665</v>
+        <v>1409500</v>
       </c>
       <c r="J6" cm="1">
         <f t="array" ref="J6">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I,(Collective!$M:$M=$B6)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>2952475.5555555555</v>
+        <v>1321325.9259259778</v>
       </c>
       <c r="K6" cm="1">
         <f t="array" ref="K6">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J,(Collective!$M:$M=$B6)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>672774.37777777773</v>
+        <v>309941.42222224444</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -23853,7 +23853,7 @@
       </c>
       <c r="D7" cm="1">
         <f t="array" ref="D7">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C,(Collective!$M:$M=$B7)*(Collective!$K:$K="NO")))</f>
-        <v>8.1000000000000003E-2</v>
+        <v>7.9666666666666677E-2</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D,(Collective!$M:$M=$B7)*(Collective!$K:$K="NO")))</f>
@@ -23869,19 +23869,19 @@
       </c>
       <c r="H7" cm="1">
         <f t="array" ref="H7">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G,(Collective!$M:$M=$B7)*(Collective!$K:$K="NO")))</f>
-        <v>7406588.666666667</v>
+        <v>3137739.2777779996</v>
       </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H,(Collective!$M:$M=$B7)*(Collective!$K:$K="NO")))</f>
-        <v>4477500</v>
+        <v>1841250</v>
       </c>
       <c r="J7" cm="1">
         <f t="array" ref="J7">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I,(Collective!$M:$M=$B7)*(Collective!$K:$K="NO")))</f>
-        <v>2266833.3333333335</v>
+        <v>992400</v>
       </c>
       <c r="K7" cm="1">
         <f t="array" ref="K7">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J,(Collective!$M:$M=$B7)*(Collective!$K:$K="NO")))</f>
-        <v>662255.33333333337</v>
+        <v>304089.27777799993</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="D8" cm="1">
         <f t="array" ref="D8">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C,(Collective!$M:$M=$B8)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>9.328888888888888E-2</v>
+        <v>8.0044444444444446E-2</v>
       </c>
       <c r="E8" cm="1">
         <f t="array" ref="E8">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D,(Collective!$M:$M=$B8)*(Collective!$K:$K&lt;&gt;"NO")))</f>
@@ -23913,19 +23913,19 @@
       </c>
       <c r="H8" cm="1">
         <f t="array" ref="H8">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G,(Collective!$M:$M=$B8)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>4107039.8444444444</v>
+        <v>1824849.9074074221</v>
       </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H,(Collective!$M:$M=$B8)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>1930666.6666666667</v>
+        <v>868444.4444444445</v>
       </c>
       <c r="J8" cm="1">
         <f t="array" ref="J8">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I,(Collective!$M:$M=$B8)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>1646124.4444444445</v>
+        <v>716270.00000002224</v>
       </c>
       <c r="K8" cm="1">
         <f t="array" ref="K8">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J,(Collective!$M:$M=$B8)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>530248.73333333328</v>
+        <v>240135.46296295556</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -23941,7 +23941,7 @@
       </c>
       <c r="D9" cm="1">
         <f t="array" ref="D9">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C,(Collective!$M:$M=$B9)*(Collective!$K:$K="NO")))</f>
-        <v>7.5999999999999998E-2</v>
+        <v>7.8666666666666663E-2</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D,(Collective!$M:$M=$B9)*(Collective!$K:$K="NO")))</f>
@@ -23957,19 +23957,19 @@
       </c>
       <c r="H9" cm="1">
         <f t="array" ref="H9">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G,(Collective!$M:$M=$B9)*(Collective!$K:$K="NO")))</f>
-        <v>4187549.6666666665</v>
+        <v>1880547.7222223331</v>
       </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H,(Collective!$M:$M=$B9)*(Collective!$K:$K="NO")))</f>
-        <v>2535000</v>
+        <v>1144166.6666666667</v>
       </c>
       <c r="J9" cm="1">
         <f t="array" ref="J9">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I,(Collective!$M:$M=$B9)*(Collective!$K:$K="NO")))</f>
-        <v>1103633.3333333333</v>
+        <v>485627.77777766669</v>
       </c>
       <c r="K9" cm="1">
         <f t="array" ref="K9">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J,(Collective!$M:$M=$B9)*(Collective!$K:$K="NO")))</f>
-        <v>548916.33333333337</v>
+        <v>250753.27777766666</v>
       </c>
     </row>
   </sheetData>
@@ -24049,7 +24049,7 @@
       </c>
       <c r="D2" cm="1">
         <f t="array" ref="D2">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C,(Collective!$N:$N=$B2)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>5.0333333333333334E-2</v>
+        <v>4.5783333333333322E-2</v>
       </c>
       <c r="E2" cm="1">
         <f t="array" ref="E2">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D,(Collective!$N:$N=$B2)*(Collective!$K:$K&lt;&gt;"NO")))</f>
@@ -24065,19 +24065,19 @@
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G,(Collective!$N:$N=$B2)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>3102305.8166666669</v>
+        <v>2068203.8777777501</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H,(Collective!$N:$N=$B2)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>1426125</v>
+        <v>950750</v>
       </c>
       <c r="J2" cm="1">
         <f t="array" ref="J2">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I,(Collective!$N:$N=$B2)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>1282050</v>
+        <v>854700.00000001665</v>
       </c>
       <c r="K2" cm="1">
         <f t="array" ref="K2">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J,(Collective!$N:$N=$B2)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>394130.81666666665</v>
+        <v>262753.87777776667</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -24093,7 +24093,7 @@
       </c>
       <c r="D3" cm="1">
         <f t="array" ref="D3">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C,(Collective!$N:$N=$B3)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>7.8083333333333338E-2</v>
+        <v>6.6416666666666666E-2</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" ref="E3">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D,(Collective!$N:$N=$B3)*(Collective!$K:$K&lt;&gt;"NO")))</f>
@@ -24109,19 +24109,19 @@
       </c>
       <c r="H3" cm="1">
         <f t="array" ref="H3">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G,(Collective!$N:$N=$B3)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>4452172.3</v>
+        <v>2226086.15</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" ref="I3">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H,(Collective!$N:$N=$B3)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>1998875</v>
+        <v>999437.5</v>
       </c>
       <c r="J3" cm="1">
         <f t="array" ref="J3">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I,(Collective!$N:$N=$B3)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>1918381.6666666667</v>
+        <v>959190.83333333337</v>
       </c>
       <c r="K3" cm="1">
         <f t="array" ref="K3">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J,(Collective!$N:$N=$B3)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>534915.6333333333</v>
+        <v>267457.81666666665</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -24137,7 +24137,7 @@
       </c>
       <c r="D4" cm="1">
         <f t="array" ref="D4">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C,(Collective!$N:$N=$B4)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>0.21068333333333336</v>
+        <v>0.17633333333333329</v>
       </c>
       <c r="E4" cm="1">
         <f t="array" ref="E4">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D,(Collective!$N:$N=$B4)*(Collective!$K:$K&lt;&gt;"NO")))</f>
@@ -24153,19 +24153,19 @@
       </c>
       <c r="H4" cm="1">
         <f t="array" ref="H4">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G,(Collective!$N:$N=$B4)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>8256919.2833333332</v>
+        <v>2752306.4277777998</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" ref="I4">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H,(Collective!$N:$N=$B4)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>3898125</v>
+        <v>1299375</v>
       </c>
       <c r="J4" cm="1">
         <f t="array" ref="J4">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I,(Collective!$N:$N=$B4)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>3506418.3333333335</v>
+        <v>1168806.1111111667</v>
       </c>
       <c r="K4" cm="1">
         <f t="array" ref="K4">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J,(Collective!$N:$N=$B4)*(Collective!$K:$K&lt;&gt;"NO")))</f>
-        <v>852375.95</v>
+        <v>284125.3166666833</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -24181,7 +24181,7 @@
       </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C,(Collective!$N:$N=$B5)*(Collective!$K:$K="NO")))</f>
-        <v>4.5750000000000006E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D,(Collective!$N:$N=$B5)*(Collective!$K:$K="NO")))</f>
@@ -24197,19 +24197,19 @@
       </c>
       <c r="H5" cm="1">
         <f t="array" ref="H5">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G,(Collective!$N:$N=$B5)*(Collective!$K:$K="NO")))</f>
-        <v>2862403.25</v>
+        <v>1908268.8333334997</v>
       </c>
       <c r="I5" cm="1">
         <f t="array" ref="I5">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H,(Collective!$N:$N=$B5)*(Collective!$K:$K="NO")))</f>
-        <v>1550625</v>
+        <v>1033750</v>
       </c>
       <c r="J5" cm="1">
         <f t="array" ref="J5">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I,(Collective!$N:$N=$B5)*(Collective!$K:$K="NO")))</f>
-        <v>913425</v>
+        <v>608950</v>
       </c>
       <c r="K5" cm="1">
         <f t="array" ref="K5">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J,(Collective!$N:$N=$B5)*(Collective!$K:$K="NO")))</f>
-        <v>398353.25</v>
+        <v>265568.83333350002</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -24225,7 +24225,7 @@
       </c>
       <c r="D6" cm="1">
         <f t="array" ref="D6">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C,(Collective!$N:$N=$B6)*(Collective!$K:$K="NO")))</f>
-        <v>6.3250000000000001E-2</v>
+        <v>5.9249999999999997E-2</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D,(Collective!$N:$N=$B6)*(Collective!$K:$K="NO")))</f>
@@ -24241,19 +24241,19 @@
       </c>
       <c r="H6" cm="1">
         <f t="array" ref="H6">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G,(Collective!$N:$N=$B6)*(Collective!$K:$K="NO")))</f>
-        <v>4311736</v>
+        <v>2155868</v>
       </c>
       <c r="I6" cm="1">
         <f t="array" ref="I6">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H,(Collective!$N:$N=$B6)*(Collective!$K:$K="NO")))</f>
-        <v>2456250</v>
+        <v>1228125</v>
       </c>
       <c r="J6" cm="1">
         <f t="array" ref="J6">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I,(Collective!$N:$N=$B6)*(Collective!$K:$K="NO")))</f>
-        <v>1302125</v>
+        <v>651062.5</v>
       </c>
       <c r="K6" cm="1">
         <f t="array" ref="K6">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J,(Collective!$N:$N=$B6)*(Collective!$K:$K="NO")))</f>
-        <v>553361</v>
+        <v>276680.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -24269,7 +24269,7 @@
       </c>
       <c r="D7" cm="1">
         <f t="array" ref="D7">AVERAGE(_xlfn._xlws.FILTER(Collective!C:C,(Collective!$N:$N=$B7)*(Collective!$K:$K="NO")))</f>
-        <v>0.155</v>
+        <v>0.16175</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">AVERAGE(_xlfn._xlws.FILTER(Collective!D:D,(Collective!$N:$N=$B7)*(Collective!$K:$K="NO")))</f>
@@ -24285,19 +24285,19 @@
       </c>
       <c r="H7" cm="1">
         <f t="array" ref="H7">AVERAGE(_xlfn._xlws.FILTER(Collective!G:G,(Collective!$N:$N=$B7)*(Collective!$K:$K="NO")))</f>
-        <v>8814734</v>
+        <v>2938244.6666667499</v>
       </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">AVERAGE(_xlfn._xlws.FILTER(Collective!H:H,(Collective!$N:$N=$B7)*(Collective!$K:$K="NO")))</f>
-        <v>5411250</v>
+        <v>1803750</v>
       </c>
       <c r="J7" cm="1">
         <f t="array" ref="J7">AVERAGE(_xlfn._xlws.FILTER(Collective!I:I,(Collective!$N:$N=$B7)*(Collective!$K:$K="NO")))</f>
-        <v>2556775</v>
+        <v>852258.33333325002</v>
       </c>
       <c r="K7" cm="1">
         <f t="array" ref="K7">AVERAGE(_xlfn._xlws.FILTER(Collective!J:J,(Collective!$N:$N=$B7)*(Collective!$K:$K="NO")))</f>
-        <v>846709</v>
+        <v>282236.33333325002</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4A7064-32B8-4493-9ABE-35A03F9AC710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5267A6-2228-4D59-9A79-BACB73D9D6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-15300" yWindow="2250" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collective" sheetId="1" r:id="rId1"/>
@@ -893,7 +893,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1073,6 +1073,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1234,9 +1240,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -14364,7 +14371,7 @@
   <dimension ref="A1:N193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14517,47 +14524,47 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>23666158.800000001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.32400000000000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>94.303991999999994</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>94.377994999999999</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>2859630.8</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>4135480.6666669999</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>2287500</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>1567966.6666669999</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>280014</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>36</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5267A6-2228-4D59-9A79-BACB73D9D6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D672B8-E491-4A40-926C-07A23C0C3D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-15300" yWindow="2250" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14655" yWindow="255" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collective" sheetId="1" r:id="rId1"/>
@@ -893,7 +893,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1073,12 +1073,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1243,7 +1237,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -14370,8 +14364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
